--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="766" firstSheet="3" activeTab="3"/>
@@ -13,22 +13,25 @@
     <sheet name="列表" sheetId="4" r:id="rId4"/>
     <sheet name="用户-信息" sheetId="6" r:id="rId5"/>
     <sheet name="资源-类型" sheetId="18" r:id="rId6"/>
-    <sheet name="资源-信息" sheetId="71" r:id="rId7"/>
-    <sheet name="资源3D-纹理" sheetId="73" r:id="rId8"/>
-    <sheet name="资源3D-纹理-位图" sheetId="74" r:id="rId9"/>
-    <sheet name="资源3D-材质" sheetId="75" r:id="rId10"/>
-    <sheet name="资源3D-材质-纹理" sheetId="76" r:id="rId11"/>
-    <sheet name="资源3D-模型" sheetId="77" r:id="rId12"/>
-    <sheet name="资源3D-模型-网格" sheetId="19" r:id="rId13"/>
-    <sheet name="资源3D-模型-数据流" sheetId="9" r:id="rId14"/>
-    <sheet name="系统-会话" sheetId="20" r:id="rId15"/>
+    <sheet name="资源-图片" sheetId="79" r:id="rId7"/>
+    <sheet name="资源-图片-数据" sheetId="80" r:id="rId8"/>
+    <sheet name="资源-信息" sheetId="71" r:id="rId9"/>
+    <sheet name="资源3D-纹理" sheetId="73" r:id="rId10"/>
+    <sheet name="资源3D-纹理-位图" sheetId="74" r:id="rId11"/>
+    <sheet name="资源3D-材质" sheetId="75" r:id="rId12"/>
+    <sheet name="资源3D-材质-纹理" sheetId="76" r:id="rId13"/>
+    <sheet name="资源3D-模型" sheetId="77" r:id="rId14"/>
+    <sheet name="资源3D-模型-网格" sheetId="19" r:id="rId15"/>
+    <sheet name="资源3D-模型-数据流" sheetId="9" r:id="rId16"/>
+    <sheet name="资源3D-模板" sheetId="78" r:id="rId17"/>
+    <sheet name="系统-会话" sheetId="20" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="336">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,10 +937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT_DSN_PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设计项目表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,10 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT_RS3_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源3D信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,215 +981,387 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DT_RS3_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS2_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS2_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource3d.mesh.buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433df8a7ab8ccc882334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb8a7ab8ccc882334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\type_code\{yyyymmdd}\code\version.{type_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg/png/psd/dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型网格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GVID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局版本标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESH_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGcData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_STRIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_STRIDE = sizeof(ELEMENT_TYPE_CD) * ELEMENT_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH = DATA_STRIDE * DATA_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_DATA_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_PICTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_PICTURE_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源图片表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源图片数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PICTURE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIDTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORMAT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DT_RS3_TEXTURE_BITMAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT_RS3_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SCENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D蒙皮表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D场景表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS2_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS2_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_PICTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource3d.mesh.buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>433df8a7ab8ccc882334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb8a7ab8ccc882334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\type_code\{yyyymmdd}\code\version.{type_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpg/png/psd/dat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型网格表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GVID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局版本标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODEL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESH_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGcData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_STRIDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_STRIDE = sizeof(ELEMENT_TYPE_CD) * ELEMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH = DATA_STRIDE * DATA_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_DATA_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE_RENDERABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板渲染表</t>
+    <t>DT_RS3_MATERIAL_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有文件放在个人目录下。 [最好能使用 Git/SVN 等版本管理工具]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture\Bitmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model\Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照 github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\person\project\version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model导入 (FBX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemplateEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享后才进入数据库统一管理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有资源通过 GUID 进行关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID(40字符 Group[3]-Modul[3]-GUID[32])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\person\project\{catalog}\{guid}\{version}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,6 +1496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,7 +1654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1653,6 +1826,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3112,7 +3296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3154,7 +3338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3189,7 +3373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3497,6 +3681,859 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
@@ -4000,7 +5037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -4406,7 +5443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -4415,7 +5452,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4434,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
@@ -4451,7 +5488,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -4549,7 +5586,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -4572,10 +5609,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -4809,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -4837,7 +5874,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
@@ -4854,7 +5891,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -4952,7 +5989,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -4975,10 +6012,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -5001,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>194</v>
@@ -5212,7 +6249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -5241,7 +6278,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
@@ -5258,7 +6295,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -5356,7 +6393,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -5379,10 +6416,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -5405,7 +6442,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>196</v>
@@ -5418,7 +6455,7 @@
         <v>197</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H8" s="22">
         <v>42031</v>
@@ -5433,7 +6470,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>196</v>
@@ -5446,7 +6483,7 @@
         <v>162</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -5487,13 +6524,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="51"/>
@@ -5511,13 +6548,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>286</v>
-      </c>
       <c r="D12" s="30" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="51"/>
@@ -5535,7 +6572,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>208</v>
@@ -5546,7 +6583,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="51"/>
       <c r="G13" s="30" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H13" s="22">
         <v>42031</v>
@@ -5561,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>209</v>
@@ -5585,10 +6622,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>29</v>
@@ -5596,7 +6633,7 @@
       <c r="E15" s="30"/>
       <c r="F15" s="51"/>
       <c r="G15" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H15" s="22">
         <v>42031</v>
@@ -5744,7 +6781,410 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>200</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -5753,7 +7193,7 @@
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6509,13 +7949,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>181</v>
@@ -6815,12 +8255,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6832,7 +8272,7 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="65" t="s">
         <v>154</v>
       </c>
@@ -6843,7 +8283,7 @@
       <c r="F1" s="66"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="68" t="s">
         <v>156</v>
       </c>
@@ -6854,7 +8294,7 @@
       <c r="F2" s="69"/>
       <c r="G2" s="70"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -6877,7 +8317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="45">
         <f t="shared" ref="A4" si="0">ROW()-3</f>
         <v>1</v>
@@ -6901,9 +8341,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="45">
-        <f t="shared" ref="A5:A38" si="1">ROW()-3</f>
+        <f t="shared" ref="A5:A37" si="1">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="36" t="str">
@@ -6927,7 +8367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="45">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6941,10 +8381,10 @@
         <v>资源</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F6" s="34">
         <v>42030</v>
@@ -6953,10 +8393,13 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>309</v>
+      </c>
+      <c r="K6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6969,10 +8412,10 @@
         <v>资源</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F7" s="34">
         <v>42030</v>
@@ -6980,93 +8423,78 @@
       <c r="G7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="45">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="78">
+        <f>ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="36" t="str">
+      <c r="C8" s="79" t="str">
         <f>IFERROR(VLOOKUP(MID(D8,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="34">
-        <v>42030</v>
-      </c>
-      <c r="G8" s="35" t="s">
+      <c r="D8" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="80">
+        <v>42032</v>
+      </c>
+      <c r="G8" s="81" t="s">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="45">
-        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="78">
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D9,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C9" s="36" t="str">
+      <c r="B9" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="79" t="str">
         <f>IFERROR(VLOOKUP(MID(D9,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源2D</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="34">
-        <v>42030</v>
-      </c>
-      <c r="G9" s="35" t="s">
+        <v>资源</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="80">
+        <v>42032</v>
+      </c>
+      <c r="G9" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>33</v>
+      <c r="B10" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D10,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
       </c>
       <c r="C10" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D10,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源2D</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="F10" s="34">
         <v>42030</v>
@@ -7074,31 +8502,24 @@
       <c r="G10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D11,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
+      <c r="B11" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D11,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源2D</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="F11" s="34">
         <v>42030</v>
@@ -7106,8 +8527,11 @@
       <c r="G11" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7120,7 +8544,7 @@
         <v>资源3D</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>198</v>
@@ -7131,9 +8555,12 @@
       <c r="G12" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="45">
+      <c r="I12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -7145,10 +8572,10 @@
         <v>资源3D</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="34">
         <v>42030</v>
@@ -7156,8 +8583,11 @@
       <c r="G13" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7170,7 +8600,7 @@
         <v>资源3D</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>212</v>
@@ -7181,14 +8611,8 @@
       <c r="G14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J14" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7201,7 +8625,7 @@
         <v>资源3D</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>213</v>
@@ -7212,86 +8636,110 @@
       <c r="G15" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="43">
+      <c r="I15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J15" t="s">
+        <v>315</v>
+      </c>
+      <c r="L15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="82">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B16" s="36" t="str">
+      <c r="B16" s="79" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D16,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C16" s="36" t="str">
+      <c r="C16" s="79" t="str">
         <f>IFERROR(VLOOKUP(MID(D16,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="D16" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="80">
         <v>42030</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="43">
+      <c r="J16" t="s">
+        <v>316</v>
+      </c>
+      <c r="L16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="82">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="83" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D17,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C17" s="44" t="str">
+      <c r="C17" s="83" t="str">
         <f>IFERROR(VLOOKUP(MID(D17,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="D17" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="80">
         <v>42030</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="43">
+      <c r="J17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="82">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="83" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D18,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C18" s="44" t="str">
+      <c r="C18" s="83" t="str">
         <f>IFERROR(VLOOKUP(MID(D18,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D18" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="D18" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="80">
         <v>42030</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="43">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7305,10 +8753,10 @@
         <v>资源3D</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F19" s="34">
         <v>42030</v>
@@ -7316,8 +8764,11 @@
       <c r="G19" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="45">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7331,10 +8782,10 @@
         <v>资源3D</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="F20" s="34">
         <v>42030</v>
@@ -7343,7 +8794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:12">
       <c r="A21" s="45">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7356,11 +8807,11 @@
         <f>IFERROR(VLOOKUP(MID(D21,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>293</v>
+      <c r="D21" s="63" t="s">
+        <v>241</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="F21" s="34">
         <v>42030</v>
@@ -7368,25 +8819,32 @@
       <c r="G21" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>321</v>
+      </c>
+      <c r="J21" t="s">
+        <v>325</v>
+      </c>
+      <c r="L21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="45">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D22,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C22" s="36" t="str">
-        <f>IFERROR(VLOOKUP(MID(D22,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>246</v>
+      <c r="B22" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F22" s="34">
         <v>42030</v>
@@ -7394,8 +8852,14 @@
       <c r="G22" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" t="s">
+        <v>326</v>
+      </c>
+      <c r="L22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="45">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7407,10 +8871,10 @@
         <v>227</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F23" s="34">
         <v>42030</v>
@@ -7418,8 +8882,14 @@
       <c r="G23" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23" t="s">
+        <v>328</v>
+      </c>
+      <c r="L23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="45">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7431,10 +8901,10 @@
         <v>227</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F24" s="34">
         <v>42030</v>
@@ -7442,23 +8912,31 @@
       <c r="G24" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" t="s">
+        <v>324</v>
+      </c>
+      <c r="L24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="45">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>227</v>
+      <c r="B25" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D25,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>缓冲</v>
+      </c>
+      <c r="C25" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D25,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>系统</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="F25" s="34">
         <v>42030</v>
@@ -7467,33 +8945,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="45">
+    <row r="26" spans="1:12">
+      <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="36" t="str">
+      <c r="B26" s="1" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D26,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>缓冲</v>
-      </c>
-      <c r="C26" s="36" t="str">
+        <v/>
+      </c>
+      <c r="C26" s="1" t="str">
         <f>IFERROR(VLOOKUP(MID(D26,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>系统</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="34">
-        <v>42030</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v/>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="24"/>
+      <c r="I26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7511,7 +8984,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:12">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7529,7 +9002,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:12">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7546,8 +9019,14 @@
       <c r="E29" s="1"/>
       <c r="F29" s="6"/>
       <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="s">
+        <v>323</v>
+      </c>
+      <c r="J29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7565,7 +9044,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:12">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7583,7 +9062,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:12">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7600,8 +9079,11 @@
       <c r="E32" s="1"/>
       <c r="F32" s="6"/>
       <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7618,8 +9100,14 @@
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>
       <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7636,8 +9124,14 @@
       <c r="E34" s="1"/>
       <c r="F34" s="6"/>
       <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="23">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7654,8 +9148,14 @@
       <c r="E35" s="1"/>
       <c r="F35" s="6"/>
       <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="23">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7672,42 +9172,44 @@
       <c r="E36" s="1"/>
       <c r="F36" s="6"/>
       <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="23">
+      <c r="J36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A37" s="25">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="str">
+      <c r="B37" s="26" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D37,2),分库!$B:$D,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C37" s="26" t="str">
         <f>IFERROR(VLOOKUP(MID(D37,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A38" s="25">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B38" s="26" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D38,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C38" s="26" t="str">
-        <f>IFERROR(VLOOKUP(MID(D38,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="J38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7722,23 +9224,22 @@
     <hyperlink ref="D14" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
     <hyperlink ref="D12" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
     <hyperlink ref="D16" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
-    <hyperlink ref="D22" location="'系统-短信验证'!A1" display="CC_SYS_SMS_VALIDATION"/>
-    <hyperlink ref="D13" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
+    <hyperlink ref="D21" location="'系统-短信验证'!A1" display="CC_SYS_SMS_VALIDATION"/>
     <hyperlink ref="D18" location="'资源3D-模型-数据流'!A1" display="DT_RS3_MODEL_STREAM"/>
-    <hyperlink ref="D11" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
     <hyperlink ref="D5" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
     <hyperlink ref="D4" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D26" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
+    <hyperlink ref="D25" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
+    <hyperlink ref="D22" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D23" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D24" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D25" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D19" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
-    <hyperlink ref="D9" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
-    <hyperlink ref="D10" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
+    <hyperlink ref="D10" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
+    <hyperlink ref="D11" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
     <hyperlink ref="D8" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
     <hyperlink ref="D7" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
     <hyperlink ref="D6" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
-    <hyperlink ref="D21" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
+    <hyperlink ref="D9" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
+    <hyperlink ref="D13" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8660,6 +10161,884 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>200</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" ref="A8:A18" si="1">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>200</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A18" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
@@ -9158,857 +11537,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G34" sqref="G34"/>
-      <selection pane="topRight" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A16" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G34" sqref="G34"/>
-      <selection pane="topRight" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A16" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="766" firstSheet="3" activeTab="3"/>
@@ -13,25 +13,26 @@
     <sheet name="列表" sheetId="4" r:id="rId4"/>
     <sheet name="用户-信息" sheetId="6" r:id="rId5"/>
     <sheet name="资源-类型" sheetId="18" r:id="rId6"/>
-    <sheet name="资源-图片" sheetId="79" r:id="rId7"/>
-    <sheet name="资源-图片-数据" sheetId="80" r:id="rId8"/>
+    <sheet name="资源-位图" sheetId="79" r:id="rId7"/>
+    <sheet name="资源-位图-图片" sheetId="80" r:id="rId8"/>
     <sheet name="资源-信息" sheetId="71" r:id="rId9"/>
     <sheet name="资源3D-纹理" sheetId="73" r:id="rId10"/>
     <sheet name="资源3D-纹理-位图" sheetId="74" r:id="rId11"/>
     <sheet name="资源3D-材质" sheetId="75" r:id="rId12"/>
-    <sheet name="资源3D-材质-纹理" sheetId="76" r:id="rId13"/>
+    <sheet name="资源3D-材质-位图" sheetId="76" r:id="rId13"/>
     <sheet name="资源3D-模型" sheetId="77" r:id="rId14"/>
     <sheet name="资源3D-模型-网格" sheetId="19" r:id="rId15"/>
     <sheet name="资源3D-模型-数据流" sheetId="9" r:id="rId16"/>
     <sheet name="资源3D-模板" sheetId="78" r:id="rId17"/>
-    <sheet name="系统-会话" sheetId="20" r:id="rId18"/>
+    <sheet name="资源3D-场景" sheetId="81" r:id="rId18"/>
+    <sheet name="系统-会话" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="326">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,75 +624,665 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DT_RS3_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称：分库缩写(2字符)+分类缩写(2字符)+名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_PSN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统相关数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通内容数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE_WIDTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE_HEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXTURE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_TEXTURE_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXTURE_BITMAP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>设计项目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计项目资源表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计项目场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS2_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS2_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource3d.mesh.buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433df8a7ab8ccc882334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb8a7ab8ccc882334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\type_code\{yyyymmdd}\code\version.{type_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg/png/psd/dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型网格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GVID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局版本标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESH_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGcData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_STRIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_STRIDE = sizeof(ELEMENT_TYPE_CD) * ELEMENT_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH = DATA_STRIDE * DATA_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_DATA_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORMAT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有文件放在个人目录下。 [最好能使用 Git/SVN 等版本管理工具]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture\Bitmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model\Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照 github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\person\project\version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model导入 (FBX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemplateEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享后才进入数据库统一管理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有资源通过 GUID 进行关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID(40字符 Group[3]-Modul[3]-GUID[32])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\person\project\{catalog}\{guid}\{version}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP_IMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源位图图片表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BITMAP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEXTURE_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源2D纹理位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源2D信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DT_RS3_MATERIAL_TEXTURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT_RS3_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEXTURE_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据表列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名称：分库缩写(2字符)+分类缩写(2字符)+名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>资源3D材质纹理表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,669 +1290,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>XML字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DISPLAY_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICON_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_PSN_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统相关数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通内容数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESOURCE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网格编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D纹理位图表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIZE_WIDTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIZE_HEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXTURE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSION_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纹理编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATERIAL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位图编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_TEXTURE_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXTURE_BITMAP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIFFUSE_COLOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPECULAR_COLOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMISSIVE_COLOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散射光颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自发光颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜面光颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>用户</t>
+    <t>DT_RS3_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CC_SYS_SESSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计项目表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_DSN_PROJECT_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计项目资源表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_DSN_PROJECT_SCENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计项目场景表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SCENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D蒙皮表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D场景表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS2_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS2_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource3d.mesh.buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>433df8a7ab8ccc882334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb8a7ab8ccc882334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\type_code\{yyyymmdd}\code\version.{type_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpg/png/psd/dat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型网格表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GVID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局版本标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODEL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESH_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGcData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_STRIDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_STRIDE = sizeof(ELEMENT_TYPE_CD) * ELEMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH = DATA_STRIDE * DATA_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_DATA_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_PICTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_PICTURE_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源图片表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源图片数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESOURCE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PICTURE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIDTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORMAT_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_BITMAP_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEXTURE_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_SOL_PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个人一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有文件放在个人目录下。 [最好能使用 Git/SVN 等版本管理工具]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture\Bitmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model\Mesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照 github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\person\project\version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model导入 (FBX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TemplateEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容管理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享后才进入数据库统一管理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有资源通过 GUID 进行关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUID(40字符 Group[3]-Modul[3]-GUID[32])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\person\project\{catalog}\{guid}\{version}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,7 +1333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,20 +1422,12 @@
       <sz val="11"/>
       <color rgb="FF3333FF"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF3333FF"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1502,6 +1455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,7 +1613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1741,9 +1700,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1790,10 +1748,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1826,17 +1794,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3296,7 +3263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3338,7 +3305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3373,7 +3340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3681,14 +3648,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="D24" activeCellId="1" sqref="B2:G2 D24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3699,42 +3666,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -3753,7 +3720,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -3761,7 +3728,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3777,21 +3744,21 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="58" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3804,12 +3771,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="58" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3822,7 +3789,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -3830,44 +3797,44 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="58" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A14" si="1">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -3882,18 +3849,18 @@
       <c r="E8" s="30">
         <v>80</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -3908,85 +3875,83 @@
       <c r="E9" s="30">
         <v>200</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
+      <c r="A10" s="13">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="30">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
         <v>2000</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22">
-        <v>42012</v>
-      </c>
       <c r="I11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29">
-        <f t="shared" si="0"/>
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
         <v>42012</v>
       </c>
       <c r="I12" s="55" t="s">
@@ -3995,97 +3960,49 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42012</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
         <v>42012</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A16" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I16" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4115,7 +4032,7 @@
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4125,44 +4042,44 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -4181,7 +4098,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -4189,12 +4106,12 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8">
+      <c r="A4" s="13">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
@@ -4208,18 +4125,18 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="50" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4232,12 +4149,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="50" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4250,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -4258,162 +4175,170 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="50" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A16" si="1">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>198</v>
+      </c>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>309</v>
+      </c>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>80</v>
+      </c>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="30">
+        <v>200</v>
+      </c>
+      <c r="F11" s="50"/>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42012</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29">
-        <f t="shared" si="0"/>
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="8">
         <v>2000</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
-        <v>42012</v>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>97</v>
@@ -4421,7 +4346,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4434,18 +4359,18 @@
         <v>17</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42012</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4458,18 +4383,18 @@
         <v>18</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>42012</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -4482,18 +4407,18 @@
         <v>17</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
         <v>42012</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1">
       <c r="A16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -4506,12 +4431,12 @@
         <v>18</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17">
         <v>42012</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4534,14 +4459,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4552,42 +4477,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -4606,7 +4531,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -4614,7 +4539,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4630,21 +4555,21 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="58" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A19" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4657,12 +4582,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="58" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4675,7 +4600,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -4683,44 +4608,44 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="58" t="s">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4735,18 +4660,18 @@
       <c r="E8" s="30">
         <v>80</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -4761,262 +4686,160 @@
       <c r="E9" s="30">
         <v>200</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="30">
-        <v>64</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="30"/>
+        <v>171</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="H10" s="22">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29">
-        <f t="shared" si="0"/>
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30">
-        <v>64</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22">
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
         <v>42012</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="30">
-        <v>64</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
         <v>42012</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="22">
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
         <v>42012</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="22">
+      <c r="I14" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
         <v>42012</v>
       </c>
-      <c r="I14" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A19" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I19" s="57" t="s">
+      <c r="I15" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5056,44 +4879,44 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
     <col min="7" max="7" width="34.625" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -5112,7 +4935,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -5120,7 +4943,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5139,12 +4962,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42012</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5163,12 +4986,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42012</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5189,12 +5012,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42012</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5204,25 +5027,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>197</v>
+      <c r="F7" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H7" s="22">
         <v>42012</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5232,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>59</v>
@@ -5243,12 +5066,12 @@
       <c r="E8" s="30">
         <v>80</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5258,23 +5081,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5284,23 +5107,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H10" s="22">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5321,12 +5144,12 @@
       <c r="E11" s="30">
         <v>2000</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42012</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5345,12 +5168,12 @@
         <v>17</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <v>42012</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5369,12 +5192,12 @@
         <v>18</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42012</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5393,12 +5216,12 @@
         <v>17</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>42012</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5417,12 +5240,12 @@
         <v>18</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <v>42012</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5463,42 +5286,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -5517,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -5525,7 +5348,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5544,12 +5367,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42031</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5568,12 +5391,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42031</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5586,7 +5409,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -5594,12 +5417,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42031</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5609,10 +5432,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -5620,12 +5443,12 @@
       <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>42031</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5635,23 +5458,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
-        <v>162</v>
+      <c r="F8" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42031</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5672,12 +5495,12 @@
       <c r="E9" s="30">
         <v>80</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42031</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5698,12 +5521,12 @@
       <c r="E10" s="30">
         <v>200</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42031</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5724,12 +5547,12 @@
       <c r="E11" s="8">
         <v>2000</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
         <v>42031</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5748,12 +5571,12 @@
         <v>17</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <v>42031</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5772,12 +5595,12 @@
         <v>18</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42031</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5796,12 +5619,12 @@
         <v>17</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>42031</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5820,12 +5643,12 @@
         <v>18</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <v>42031</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5866,42 +5689,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -5920,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -5928,7 +5751,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5947,12 +5770,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42031</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5971,12 +5794,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42031</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5989,7 +5812,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -5997,12 +5820,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42031</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6012,10 +5835,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -6023,12 +5846,12 @@
       <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>42031</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6038,23 +5861,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
-        <v>162</v>
+      <c r="F8" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42031</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6075,12 +5898,12 @@
       <c r="E9" s="30">
         <v>80</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42031</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6101,12 +5924,12 @@
       <c r="E10" s="30">
         <v>200</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42031</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6127,12 +5950,12 @@
       <c r="E11" s="8">
         <v>2000</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
         <v>42031</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6151,12 +5974,12 @@
         <v>17</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <v>42031</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6175,12 +5998,12 @@
         <v>18</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42031</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6199,12 +6022,12 @@
         <v>17</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>42031</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6223,12 +6046,12 @@
         <v>18</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
         <v>42031</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6268,44 +6091,44 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -6324,7 +6147,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -6332,7 +6155,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6351,12 +6174,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42031</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6375,12 +6198,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42031</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6393,7 +6216,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -6401,12 +6224,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42031</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6416,10 +6239,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -6427,12 +6250,12 @@
       <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>42031</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6442,25 +6265,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
-        <v>197</v>
+      <c r="F8" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H8" s="22">
         <v>42031</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6470,25 +6293,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="51" t="s">
-        <v>162</v>
+      <c r="F9" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6509,12 +6332,12 @@
       <c r="E10" s="30">
         <v>80</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42031</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6524,21 +6347,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42031</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6548,21 +6371,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="51"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="30"/>
       <c r="H12" s="22">
         <v>42031</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6572,23 +6395,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="30"/>
-      <c r="F13" s="51"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="30" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H13" s="22">
         <v>42031</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6598,21 +6421,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="30"/>
       <c r="H14" s="22">
         <v>42031</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6622,23 +6445,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="30" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H15" s="22">
         <v>42031</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6659,12 +6482,12 @@
       <c r="E16" s="8">
         <v>2000</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
         <v>42031</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6683,12 +6506,12 @@
         <v>17</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9">
         <v>42031</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6707,12 +6530,12 @@
         <v>18</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9">
         <v>42031</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6731,12 +6554,12 @@
         <v>17</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9">
         <v>42031</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6755,12 +6578,12 @@
         <v>18</v>
       </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="52"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
         <v>42031</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6783,14 +6606,14 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6801,42 +6624,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -6855,7 +6678,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -6863,7 +6686,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6882,18 +6705,18 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42031</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -6906,12 +6729,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42031</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6924,7 +6747,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -6932,12 +6755,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42031</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6947,10 +6770,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -6958,12 +6781,12 @@
       <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>42031</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6973,23 +6796,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42031</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6999,46 +6822,46 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="30">
-        <v>80</v>
-      </c>
-      <c r="F9" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42031</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="29">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="30">
-        <v>200</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
         <v>42031</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -7051,23 +6874,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
         <v>42031</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7077,21 +6898,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <v>42031</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7101,69 +6922,45 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42031</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
         <v>42031</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I15" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7186,13 +6983,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G35" sqref="G35"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
@@ -7202,8 +6999,385 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="9" width="10.625" customWidth="1"/>
   </cols>
@@ -7212,35 +7386,35 @@
       <c r="A1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -7259,7 +7433,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>64</v>
@@ -7286,7 +7460,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42012</v>
@@ -7310,7 +7484,7 @@
         <v>86</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42012</v>
@@ -7335,7 +7509,7 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42012</v>
@@ -7359,8 +7533,8 @@
         <v>60</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="60" t="s">
-        <v>162</v>
+      <c r="F7" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="33">
@@ -7385,7 +7559,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="50"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9">
         <v>42012</v>
@@ -7409,7 +7583,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="50"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
         <v>42012</v>
@@ -7433,7 +7607,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="50"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
         <v>42012</v>
@@ -7457,7 +7631,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="52"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17">
         <v>42012</v>
@@ -7864,10 +8038,10 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7877,22 +8051,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="F3" s="6">
         <v>41830</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7901,22 +8075,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="F4" s="6">
         <v>41830</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7925,22 +8099,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="F5" s="6">
         <v>41830</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7949,16 +8123,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="6">
         <v>41830</v>
@@ -7987,7 +8161,7 @@
       <c r="F7" s="6">
         <v>42012</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8011,7 +8185,7 @@
       <c r="F8" s="6">
         <v>42012</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8035,7 +8209,7 @@
       <c r="F9" s="6">
         <v>42012</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8255,12 +8429,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8273,26 +8447,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="40" t="s">
@@ -8318,32 +8492,32 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <f t="shared" ref="A4" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>175</v>
+        <v>213</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="34">
         <v>42030</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45">
-        <f t="shared" ref="A5:A37" si="1">ROW()-3</f>
+      <c r="A5" s="44">
+        <f t="shared" ref="A5:A38" si="1">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="36" t="str">
@@ -8354,11 +8528,11 @@
         <f>IFERROR(VLOOKUP(MID(D5,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>155</v>
       </c>
       <c r="F5" s="34">
         <v>42030</v>
@@ -8368,7 +8542,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8380,11 +8554,11 @@
         <f>IFERROR(VLOOKUP(MID(D6,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>250</v>
+      <c r="D6" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F6" s="34">
         <v>42030</v>
@@ -8393,14 +8567,14 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8411,11 +8585,11 @@
         <f>IFERROR(VLOOKUP(MID(D7,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>248</v>
+      <c r="D7" s="46" t="s">
+        <v>228</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F7" s="34">
         <v>42030</v>
@@ -8425,60 +8599,60 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="78">
+      <c r="A8" s="64">
         <f>ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="79" t="str">
+      <c r="C8" s="65" t="str">
         <f>IFERROR(VLOOKUP(MID(D8,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D8" s="77" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="80">
+      <c r="D8" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="66">
         <v>42032</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="78">
+      <c r="A9" s="64">
         <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="79" t="str">
+      <c r="C9" s="65" t="str">
         <f>IFERROR(VLOOKUP(MID(D9,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D9" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="80">
+      <c r="D9" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="66">
         <v>42032</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -8490,11 +8664,11 @@
         <f>IFERROR(VLOOKUP(MID(D10,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源2D</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>246</v>
+      <c r="D10" s="46" t="s">
+        <v>226</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="F10" s="34">
         <v>42030</v>
@@ -8504,7 +8678,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -8515,11 +8689,11 @@
         <f>IFERROR(VLOOKUP(MID(D11,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源2D</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>247</v>
+      <c r="D11" s="46" t="s">
+        <v>227</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="F11" s="34">
         <v>42030</v>
@@ -8528,7 +8702,7 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8543,11 +8717,11 @@
         <f>IFERROR(VLOOKUP(MID(D12,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>239</v>
+      <c r="D12" s="46" t="s">
+        <v>221</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="F12" s="34">
         <v>42030</v>
@@ -8556,7 +8730,10 @@
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>284</v>
+      </c>
+      <c r="L12" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8571,11 +8748,11 @@
         <f>IFERROR(VLOOKUP(MID(D13,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>306</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="F13" s="34">
         <v>42030</v>
@@ -8584,7 +8761,7 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8599,11 +8776,11 @@
         <f>IFERROR(VLOOKUP(MID(D14,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>240</v>
+      <c r="D14" s="46" t="s">
+        <v>222</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F14" s="34">
         <v>42030</v>
@@ -8613,37 +8790,28 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="43">
+      <c r="A15" s="82">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="36" t="str">
+      <c r="C15" s="85" t="str">
         <f>IFERROR(VLOOKUP(MID(D15,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="D15" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="86">
         <v>42030</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="87" t="s">
         <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>313</v>
-      </c>
-      <c r="J15" t="s">
-        <v>315</v>
-      </c>
-      <c r="L15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8651,151 +8819,159 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B16" s="79" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D16,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C16" s="79" t="str">
+      <c r="B16" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="85" t="str">
         <f>IFERROR(VLOOKUP(MID(D16,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="80">
+      <c r="D16" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="86">
         <v>42030</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="87" t="s">
         <v>8</v>
       </c>
+      <c r="I16" t="s">
+        <v>277</v>
+      </c>
       <c r="J16" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="L16" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="82">
+      <c r="A17" s="68">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="83" t="str">
+      <c r="B17" s="65" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D17,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C17" s="83" t="str">
+      <c r="C17" s="65" t="str">
         <f>IFERROR(VLOOKUP(MID(D17,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D17" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="80">
+      <c r="D17" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="66">
         <v>42030</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="L17" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="82">
+      <c r="A18" s="68">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="83" t="str">
+      <c r="B18" s="69" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D18,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C18" s="83" t="str">
+      <c r="C18" s="69" t="str">
         <f>IFERROR(VLOOKUP(MID(D18,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D18" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="79" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="80">
+      <c r="D18" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="66">
         <v>42030</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>317</v>
+        <v>278</v>
+      </c>
+      <c r="L18" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="43">
+      <c r="A19" s="68">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="69" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D19,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C19" s="44" t="str">
+      <c r="C19" s="69" t="str">
         <f>IFERROR(VLOOKUP(MID(D19,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="D19" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="66">
         <v>42030</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="45">
+      <c r="A20" s="82">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="36" t="str">
+      <c r="B20" s="83" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D20,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C20" s="36" t="str">
+      <c r="C20" s="83" t="str">
         <f>IFERROR(VLOOKUP(MID(D20,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="D20" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="86">
         <v>42030</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="87" t="s">
         <v>8</v>
       </c>
+      <c r="J20" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="45">
+      <c r="A21" s="44">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -8807,11 +8983,11 @@
         <f>IFERROR(VLOOKUP(MID(D21,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>241</v>
+      <c r="D21" s="46" t="s">
+        <v>266</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F21" s="34">
         <v>42030</v>
@@ -8819,32 +8995,25 @@
       <c r="G21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
-        <v>321</v>
-      </c>
-      <c r="J21" t="s">
-        <v>325</v>
-      </c>
-      <c r="L21" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="45">
+      <c r="A22" s="44">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>227</v>
+      <c r="B22" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D22,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C22" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D22,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源3D</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="F22" s="34">
         <v>42030</v>
@@ -8852,29 +9021,32 @@
       <c r="G22" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="I22" t="s">
+        <v>285</v>
+      </c>
       <c r="J22" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L22" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="45">
+      <c r="A23" s="44">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>230</v>
+        <v>213</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>322</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F23" s="34">
         <v>42030</v>
@@ -8883,28 +9055,28 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="L23" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="45">
+      <c r="A24" s="44">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>323</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="F24" s="34">
         <v>42030</v>
@@ -8913,30 +9085,28 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="L24" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="45">
+      <c r="A25" s="44">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D25,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>缓冲</v>
-      </c>
-      <c r="C25" s="36" t="str">
-        <f>IFERROR(VLOOKUP(MID(D25,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>系统</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>228</v>
+      <c r="B25" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>324</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="F25" s="34">
         <v>42030</v>
@@ -8944,26 +9114,37 @@
       <c r="G25" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="J25" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="23">
+      <c r="A26" s="44">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B26" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D26,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C26" s="1" t="str">
+        <v>缓冲</v>
+      </c>
+      <c r="C26" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D26,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="24"/>
-      <c r="I26" t="s">
-        <v>335</v>
+        <v>系统</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8983,6 +9164,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="6"/>
       <c r="G27" s="24"/>
+      <c r="I27" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="23">
@@ -9019,12 +9203,6 @@
       <c r="E29" s="1"/>
       <c r="F29" s="6"/>
       <c r="G29" s="24"/>
-      <c r="I29" t="s">
-        <v>323</v>
-      </c>
-      <c r="J29" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="23">
@@ -9043,6 +9221,12 @@
       <c r="E30" s="1"/>
       <c r="F30" s="6"/>
       <c r="G30" s="24"/>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="23">
@@ -9079,9 +9263,6 @@
       <c r="E32" s="1"/>
       <c r="F32" s="6"/>
       <c r="G32" s="24"/>
-      <c r="I32" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="23">
@@ -9100,11 +9281,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>
       <c r="G33" s="24"/>
-      <c r="J33" t="s">
-        <v>253</v>
-      </c>
-      <c r="K33" t="s">
-        <v>257</v>
+      <c r="I33" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -9125,10 +9303,10 @@
       <c r="F34" s="6"/>
       <c r="G34" s="24"/>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -9149,10 +9327,10 @@
       <c r="F35" s="6"/>
       <c r="G35" s="24"/>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -9173,42 +9351,66 @@
       <c r="F36" s="6"/>
       <c r="G36" s="24"/>
       <c r="J36" t="s">
-        <v>255</v>
-      </c>
-      <c r="K36" s="64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A37" s="25">
+        <v>234</v>
+      </c>
+      <c r="K36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="23">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="26" t="str">
+      <c r="B37" s="1" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D37,2),分库!$B:$D,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C37" s="26" t="str">
+      <c r="C37" s="1" t="str">
         <f>IFERROR(VLOOKUP(MID(D37,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="24"/>
       <c r="J37" t="s">
-        <v>261</v>
-      </c>
-      <c r="K37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>235</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A38" s="25">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="26" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D38,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="26" t="str">
+        <f>IFERROR(VLOOKUP(MID(D38,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="J38" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s">
-        <v>260</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -9218,28 +9420,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
-    <hyperlink ref="D17" location="'资源3D-模型-网格'!A1" display="DT_RS3_MODEL_MESH"/>
-    <hyperlink ref="D15" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D21" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D18" location="'资源3D-模型-网格'!A1" display="DT_RS3_MODEL_MESH"/>
+    <hyperlink ref="D16" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
     <hyperlink ref="D14" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
     <hyperlink ref="D12" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
-    <hyperlink ref="D16" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
-    <hyperlink ref="D21" location="'系统-短信验证'!A1" display="CC_SYS_SMS_VALIDATION"/>
-    <hyperlink ref="D18" location="'资源3D-模型-数据流'!A1" display="DT_RS3_MODEL_STREAM"/>
+    <hyperlink ref="D17" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
+    <hyperlink ref="D22" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
+    <hyperlink ref="D19" location="'资源3D-模型-数据流'!A1" display="DT_RS3_MODEL_STREAM"/>
     <hyperlink ref="D5" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
     <hyperlink ref="D4" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D25" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
-    <hyperlink ref="D22" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D26" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
     <hyperlink ref="D23" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D24" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D19" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
+    <hyperlink ref="D25" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D20" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
     <hyperlink ref="D10" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
     <hyperlink ref="D11" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
-    <hyperlink ref="D8" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
+    <hyperlink ref="D8" location="'资源-位图'!A1" display="DT_RES_BITMAP"/>
     <hyperlink ref="D7" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
     <hyperlink ref="D6" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
-    <hyperlink ref="D9" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
-    <hyperlink ref="D13" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
+    <hyperlink ref="D9" location="'资源-位图-图片'!A1" display="DT_RES_BITMAP_IMAGE"/>
+    <hyperlink ref="D13" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
+    <hyperlink ref="D15" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9266,42 +9469,42 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -9320,7 +9523,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -9328,7 +9531,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9347,12 +9550,12 @@
         <v>96</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42012</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9371,12 +9574,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42012</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9397,12 +9600,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42012</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9423,14 +9626,14 @@
       <c r="E7" s="32">
         <v>40</v>
       </c>
-      <c r="F7" s="59" t="s">
-        <v>162</v>
+      <c r="F7" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33">
         <v>42012</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9451,14 +9654,14 @@
       <c r="E8" s="32">
         <v>40</v>
       </c>
-      <c r="F8" s="59" t="s">
-        <v>162</v>
+      <c r="F8" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33">
         <v>42012</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9479,12 +9682,12 @@
       <c r="E9" s="32">
         <v>80</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33">
         <v>42012</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9497,7 +9700,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>16</v>
@@ -9505,14 +9708,14 @@
       <c r="E10" s="32">
         <v>80</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>162</v>
+      <c r="F10" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33">
         <v>42012</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9533,12 +9736,12 @@
       <c r="E11" s="32">
         <v>400</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="32"/>
       <c r="H11" s="33">
         <v>42012</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="60" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9559,12 +9762,12 @@
       <c r="E12" s="32">
         <v>2000</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="32"/>
       <c r="H12" s="33">
         <v>42012</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="61" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9583,12 +9786,12 @@
         <v>104</v>
       </c>
       <c r="E13" s="32"/>
-      <c r="F13" s="59"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33">
         <v>42012</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="61" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9609,12 +9812,12 @@
       <c r="E14" s="32">
         <v>2000</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33">
         <v>42012</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="61" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9633,12 +9836,12 @@
         <v>42</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
         <v>42012</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9657,12 +9860,12 @@
         <v>18</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
         <v>42012</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9681,12 +9884,12 @@
         <v>17</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9">
         <v>42012</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9705,12 +9908,12 @@
         <v>18</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="52"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17">
         <v>42012</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9750,7 +9953,7 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="9" width="10.625" customWidth="1"/>
   </cols>
@@ -9759,35 +9962,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -9806,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -9814,7 +10017,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9833,12 +10036,12 @@
         <v>96</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42012</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9857,12 +10060,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42012</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9883,12 +10086,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42012</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9898,25 +10101,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="E7" s="30">
         <v>80</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>162</v>
+      <c r="F7" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="22">
         <v>42012</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9932,17 +10135,17 @@
         <v>56</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="30">
         <v>200</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9963,12 +10166,12 @@
       <c r="E9" s="30">
         <v>400</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9987,12 +10190,12 @@
         <v>29</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10011,12 +10214,12 @@
         <v>82</v>
       </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42012</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10026,7 +10229,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>108</v>
@@ -10037,12 +10240,12 @@
       <c r="E12" s="30">
         <v>2000</v>
       </c>
-      <c r="F12" s="51"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="30"/>
       <c r="H12" s="22">
         <v>42012</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10061,12 +10264,12 @@
         <v>17</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42012</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10085,12 +10288,12 @@
         <v>18</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>42012</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10109,12 +10312,12 @@
         <v>17</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
         <v>42012</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10133,12 +10336,12 @@
         <v>18</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17">
         <v>42012</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10161,14 +10364,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10179,42 +10382,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -10233,7 +10436,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -10241,7 +10444,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10260,12 +10463,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42031</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10284,12 +10487,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42031</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10302,7 +10505,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -10310,12 +10513,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42031</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10325,10 +10528,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -10336,38 +10539,38 @@
       <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>42031</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
+        <f t="shared" ref="A8:A14" si="1">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
-        <v>162</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10377,47 +10580,47 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="30">
-        <v>80</v>
-      </c>
-      <c r="F9" s="51"/>
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="29">
+      <c r="A10" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="30">
-        <v>200</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42012</v>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>97</v>
@@ -10429,23 +10632,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="56" t="s">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10455,21 +10656,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <v>42012</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10479,69 +10680,45 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>42012</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
         <v>42012</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10571,7 +10748,7 @@
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10582,42 +10759,42 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -10636,7 +10813,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -10644,7 +10821,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10663,12 +10840,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42031</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10687,12 +10864,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42031</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10705,7 +10882,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -10713,12 +10890,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42031</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10728,10 +10905,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -10739,12 +10916,12 @@
       <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>42031</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10754,23 +10931,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
-        <v>162</v>
+      <c r="F8" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10780,7 +10957,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>59</v>
@@ -10791,12 +10968,12 @@
       <c r="E9" s="30">
         <v>80</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10806,7 +10983,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>56</v>
@@ -10817,12 +10994,12 @@
       <c r="E10" s="30">
         <v>200</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10832,21 +11009,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42012</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10856,21 +11033,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="51"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="30"/>
       <c r="H12" s="22">
         <v>42012</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10880,21 +11057,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="E13" s="30"/>
-      <c r="F13" s="51"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="30"/>
       <c r="H13" s="22">
         <v>42012</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10915,12 +11092,12 @@
       <c r="E14" s="8">
         <v>2000</v>
       </c>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>42031</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10939,12 +11116,12 @@
         <v>17</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
         <v>42012</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10963,12 +11140,12 @@
         <v>18</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
         <v>42012</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10987,12 +11164,12 @@
         <v>17</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9">
         <v>42012</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11011,12 +11188,12 @@
         <v>18</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="52"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17">
         <v>42012</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11056,7 +11233,7 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="9" width="10.625" customWidth="1"/>
   </cols>
@@ -11065,35 +11242,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -11112,7 +11289,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -11120,7 +11297,7 @@
       <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11139,12 +11316,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>42012</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11163,12 +11340,12 @@
         <v>95</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="50"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <v>42012</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11189,12 +11366,12 @@
       <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>42012</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11204,23 +11381,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="30"/>
-      <c r="F7" s="51" t="s">
-        <v>162</v>
+      <c r="F7" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="22">
         <v>42012</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11230,23 +11407,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="E8" s="30">
         <v>80</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42012</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11262,17 +11439,17 @@
         <v>56</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="30">
         <v>200</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11282,7 +11459,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>55</v>
@@ -11293,12 +11470,12 @@
       <c r="E10" s="30">
         <v>400</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
         <v>42012</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11308,7 +11485,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>79</v>
@@ -11317,12 +11494,12 @@
         <v>29</v>
       </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42012</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11332,7 +11509,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>78</v>
@@ -11341,12 +11518,12 @@
         <v>29</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="51"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="30"/>
       <c r="H12" s="22">
         <v>42012</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11356,23 +11533,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="30">
         <v>2000</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="30"/>
       <c r="H13" s="22">
         <v>42012</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11382,21 +11559,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="30"/>
       <c r="H14" s="22">
         <v>42012</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11406,7 +11583,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>94</v>
@@ -11417,12 +11594,12 @@
       <c r="E15" s="30">
         <v>2000</v>
       </c>
-      <c r="F15" s="51"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="30"/>
       <c r="H15" s="22">
         <v>42012</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11441,12 +11618,12 @@
         <v>17</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
         <v>42012</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11465,12 +11642,12 @@
         <v>18</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9">
         <v>42012</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11489,12 +11666,12 @@
         <v>17</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9">
         <v>42012</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="55" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11513,12 +11690,12 @@
         <v>18</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="52"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
         <v>42012</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="56" t="s">
         <v>97</v>
       </c>
     </row>

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="766" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="787" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,24 @@
     <sheet name="资源-信息" sheetId="71" r:id="rId9"/>
     <sheet name="资源3D-纹理" sheetId="73" r:id="rId10"/>
     <sheet name="资源3D-纹理-位图" sheetId="74" r:id="rId11"/>
-    <sheet name="资源3D-材质" sheetId="75" r:id="rId12"/>
-    <sheet name="资源3D-材质-位图" sheetId="76" r:id="rId13"/>
-    <sheet name="资源3D-模型" sheetId="77" r:id="rId14"/>
-    <sheet name="资源3D-模型-网格" sheetId="19" r:id="rId15"/>
-    <sheet name="资源3D-模型-数据流" sheetId="9" r:id="rId16"/>
-    <sheet name="资源3D-模板" sheetId="78" r:id="rId17"/>
-    <sheet name="资源3D-场景" sheetId="81" r:id="rId18"/>
-    <sheet name="系统-会话" sheetId="20" r:id="rId19"/>
+    <sheet name="资源3D-模型" sheetId="77" r:id="rId12"/>
+    <sheet name="资源3D-模型-网格" sheetId="19" r:id="rId13"/>
+    <sheet name="资源3D-模型-数据流" sheetId="9" r:id="rId14"/>
+    <sheet name="资源3D-主题" sheetId="82" r:id="rId15"/>
+    <sheet name="资源3D-材质" sheetId="75" r:id="rId16"/>
+    <sheet name="资源3D-材质-位图" sheetId="76" r:id="rId17"/>
+    <sheet name="资源3D-模板" sheetId="78" r:id="rId18"/>
+    <sheet name="资源3D-模板-主题" sheetId="84" r:id="rId19"/>
+    <sheet name="资源3D-模板-材质" sheetId="85" r:id="rId20"/>
+    <sheet name="资源3D-场景" sheetId="81" r:id="rId21"/>
+    <sheet name="系统-会话" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="347">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1323,6 +1326,90 @@
   </si>
   <si>
     <t>CC_SYS_SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D主题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVE_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SCENE_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板主题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景主题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板材质表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,6 +1849,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1793,16 +1890,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3673,35 +3760,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -4051,35 +4138,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -4458,6 +4545,1344 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>200</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>200</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" ref="A8:A20" si="1">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>80</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="29">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="29">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A20" s="15">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -4484,35 +5909,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="B2" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -4561,7 +5986,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42031</v>
+        <v>42033</v>
       </c>
       <c r="I4" s="57" t="s">
         <v>8</v>
@@ -4569,7 +5994,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4585,7 +6010,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42031</v>
+        <v>42033</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>97</v>
@@ -4611,7 +6036,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42031</v>
+        <v>42033</v>
       </c>
       <c r="I6" s="57" t="s">
         <v>97</v>
@@ -4637,7 +6062,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
-        <v>42031</v>
+        <v>42033</v>
       </c>
       <c r="I7" s="57" t="s">
         <v>97</v>
@@ -4645,7 +6070,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4663,7 +6088,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>97</v>
@@ -4671,7 +6096,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -4689,7 +6114,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I9" s="54" t="s">
         <v>97</v>
@@ -4697,17 +6122,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
@@ -4715,7 +6140,7 @@
         <v>317</v>
       </c>
       <c r="H10" s="22">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>97</v>
@@ -4723,7 +6148,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -4741,7 +6166,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
-        <v>42031</v>
+        <v>42033</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>97</v>
@@ -4749,7 +6174,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -4765,7 +6190,7 @@
       <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>97</v>
@@ -4773,7 +6198,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4789,7 +6214,7 @@
       <c r="F13" s="49"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>97</v>
@@ -4797,7 +6222,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4813,7 +6238,7 @@
       <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>97</v>
@@ -4821,7 +6246,7 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1">
       <c r="A15" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -4837,7 +6262,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17">
-        <v>42012</v>
+        <v>42033</v>
       </c>
       <c r="I15" s="56" t="s">
         <v>97</v>
@@ -4860,7 +6285,410 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -4888,35 +6716,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -5246,1721 +7074,6 @@
         <v>42012</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>80</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="30">
-        <v>200</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>80</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="30">
-        <v>200</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" ref="A8:A20" si="1">ROW()-3</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="30">
-        <v>80</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="29">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="29">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="29">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A20" s="15">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I14" s="56" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6990,7 +7103,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7008,35 +7121,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="B2" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -7360,14 +7473,14 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G35" sqref="G35"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7376,82 +7489,81 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="78"/>
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="81"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>161</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8">
+      <c r="A4" s="13">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>47</v>
@@ -7463,15 +7575,15 @@
       <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>93</v>
+        <v>42033</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5" si="0">ROW()-3</f>
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -7481,27 +7593,28 @@
         <v>85</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="8" t="s">
+        <v>42033</v>
+      </c>
+      <c r="I5" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -7512,139 +7625,237 @@
       <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="8" t="s">
+        <v>42033</v>
+      </c>
+      <c r="I6" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="37">
-        <f t="shared" ref="A7:A11" si="1">ROW()-3</f>
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="33">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13">
-        <f t="shared" si="1"/>
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A11" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42033</v>
+      </c>
+      <c r="I15" s="56" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7995,6 +8206,1079 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42033</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A11" si="1">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="33">
+        <v>42012</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A11" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
@@ -8429,12 +9713,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8447,26 +9731,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="40" t="s">
@@ -8517,7 +9801,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="44">
-        <f t="shared" ref="A5:A38" si="1">ROW()-3</f>
+        <f t="shared" ref="A5:A42" si="1">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="36" t="str">
@@ -8765,235 +10049,234 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="43">
+      <c r="A14" s="68">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="36" t="str">
+      <c r="B14" s="65" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D14,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C14" s="65" t="str">
         <f>IFERROR(VLOOKUP(MID(D14,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="D14" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="66">
         <v>42030</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="82">
+      <c r="A15" s="68">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="85" t="str">
+      <c r="B15" s="69" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D15,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C15" s="69" t="str">
         <f>IFERROR(VLOOKUP(MID(D15,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D15" s="84" t="s">
-        <v>314</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" s="86">
+      <c r="D15" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="66">
         <v>42030</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="82">
+      <c r="A16" s="68">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="85" t="str">
+      <c r="B16" s="69" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D16,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C16" s="69" t="str">
         <f>IFERROR(VLOOKUP(MID(D16,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D16" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="F16" s="86">
+      <c r="D16" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="66">
         <v>42030</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" t="s">
-        <v>279</v>
-      </c>
-      <c r="L16" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="68">
+      <c r="A17" s="43">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="65" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D17,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C17" s="65" t="str">
+      <c r="B17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D17,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="66">
+      <c r="D17" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="34">
         <v>42030</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="I17" t="s">
+        <v>277</v>
+      </c>
       <c r="J17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="68">
+      <c r="A18" s="43">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="69" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D18,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C18" s="69" t="str">
+      <c r="B18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D18,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D18" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="66">
+      <c r="D18" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="34">
         <v>42030</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="35" t="s">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="68">
+      <c r="A19" s="70">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B19" s="69" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D19,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C19" s="69" t="str">
+      <c r="B19" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="73" t="str">
         <f>IFERROR(VLOOKUP(MID(D19,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="66">
+      <c r="D19" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="74">
         <v>42030</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="75" t="s">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="L19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="82">
+      <c r="A20" s="70">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="83" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D20,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C20" s="83" t="str">
+      <c r="B20" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="73" t="str">
         <f>IFERROR(VLOOKUP(MID(D20,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D20" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="86">
+      <c r="D20" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="74">
         <v>42030</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="75" t="s">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="44">
+      <c r="A21" s="70">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="36" t="str">
+      <c r="B21" s="71" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D21,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C21" s="36" t="str">
+      <c r="C21" s="71" t="str">
         <f>IFERROR(VLOOKUP(MID(D21,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="D21" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="74">
         <v>42030</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="75" t="s">
         <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9010,25 +10293,16 @@
         <v>资源3D</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="F22" s="34">
         <v>42030</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>285</v>
-      </c>
-      <c r="J22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L22" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9036,29 +10310,25 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>322</v>
+      <c r="B23" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D23,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C23" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D23,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源3D</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>332</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="F23" s="34">
         <v>42030</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>290</v>
-      </c>
-      <c r="L23" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -9066,29 +10336,25 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>323</v>
+      <c r="B24" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D24,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C24" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D24,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源3D</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>342</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="F24" s="34">
         <v>42030</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>292</v>
-      </c>
-      <c r="L24" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9096,17 +10362,19 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>324</v>
+      <c r="B25" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D25,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C25" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D25,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源3D</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>333</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="F25" s="34">
         <v>42030</v>
@@ -9114,11 +10382,14 @@
       <c r="G25" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="I25" t="s">
+        <v>285</v>
+      </c>
       <c r="J25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9128,17 +10399,17 @@
       </c>
       <c r="B26" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D26,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>缓冲</v>
+        <v>数据</v>
       </c>
       <c r="C26" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D26,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>系统</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>325</v>
+        <v>资源3D</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>334</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="F26" s="34">
         <v>42030</v>
@@ -9148,84 +10419,119 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="23">
+      <c r="A27" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D27,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(MID(D27,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="24"/>
-      <c r="I27" t="s">
-        <v>299</v>
+      <c r="B27" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="23">
+      <c r="A28" s="44">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D28,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(MID(D28,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>292</v>
+      </c>
+      <c r="L28" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="23">
+      <c r="A29" s="44">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D29,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(MID(D29,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="23">
+      <c r="A30" s="44">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B30" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D30,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="1" t="str">
+        <v>缓冲</v>
+      </c>
+      <c r="C30" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D30,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="24"/>
-      <c r="I30" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" t="s">
-        <v>286</v>
+        <v>系统</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9245,6 +10551,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="6"/>
       <c r="G31" s="24"/>
+      <c r="I31" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="23">
@@ -9281,9 +10590,6 @@
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>
       <c r="G33" s="24"/>
-      <c r="I33" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="23">
@@ -9302,11 +10608,11 @@
       <c r="E34" s="1"/>
       <c r="F34" s="6"/>
       <c r="G34" s="24"/>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
       <c r="J34" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -9326,12 +10632,6 @@
       <c r="E35" s="1"/>
       <c r="F35" s="6"/>
       <c r="G35" s="24"/>
-      <c r="J35" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="23">
@@ -9350,12 +10650,6 @@
       <c r="E36" s="1"/>
       <c r="F36" s="6"/>
       <c r="G36" s="24"/>
-      <c r="J36" t="s">
-        <v>234</v>
-      </c>
-      <c r="K36" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="23">
@@ -9374,42 +10668,135 @@
       <c r="E37" s="1"/>
       <c r="F37" s="6"/>
       <c r="G37" s="24"/>
-      <c r="J37" t="s">
-        <v>235</v>
-      </c>
-      <c r="K37" s="62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A38" s="25">
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="23">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="26" t="str">
+      <c r="B38" s="1" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D38,2),分库!$B:$D,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C38" s="26" t="str">
+      <c r="C38" s="1" t="str">
         <f>IFERROR(VLOOKUP(MID(D38,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="24"/>
       <c r="J38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="23">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D39,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>IFERROR(VLOOKUP(MID(D39,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="24"/>
+      <c r="J39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="23">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D40,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>IFERROR(VLOOKUP(MID(D40,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="24"/>
+      <c r="J40" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="23">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D41,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>IFERROR(VLOOKUP(MID(D41,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="24"/>
+      <c r="J41" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A42" s="25">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="26" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D42,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="26" t="str">
+        <f>IFERROR(VLOOKUP(MID(D42,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="J42" t="s">
         <v>241</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K42" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="J39" t="s">
+    <row r="43" spans="1:11">
+      <c r="J43" t="s">
         <v>236</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K43" t="s">
         <v>240</v>
       </c>
     </row>
@@ -9420,21 +10807,21 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D21" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
-    <hyperlink ref="D18" location="'资源3D-模型-网格'!A1" display="DT_RS3_MODEL_MESH"/>
-    <hyperlink ref="D16" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
-    <hyperlink ref="D14" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
+    <hyperlink ref="D22" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D15" location="'资源3D-模型-网格'!A1" display="DT_RS3_MODEL_MESH"/>
+    <hyperlink ref="D20" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D18" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
     <hyperlink ref="D12" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
-    <hyperlink ref="D17" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
-    <hyperlink ref="D22" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
-    <hyperlink ref="D19" location="'资源3D-模型-数据流'!A1" display="DT_RS3_MODEL_STREAM"/>
+    <hyperlink ref="D14" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
+    <hyperlink ref="D25" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
+    <hyperlink ref="D16" location="'资源3D-模型-数据流'!A1" display="DT_RS3_MODEL_STREAM"/>
     <hyperlink ref="D5" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
     <hyperlink ref="D4" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D26" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
-    <hyperlink ref="D23" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D24" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D25" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D20" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
+    <hyperlink ref="D30" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
+    <hyperlink ref="D27" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D28" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D29" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D21" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
     <hyperlink ref="D10" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
     <hyperlink ref="D11" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
     <hyperlink ref="D8" location="'资源-位图'!A1" display="DT_RES_BITMAP"/>
@@ -9442,7 +10829,11 @@
     <hyperlink ref="D6" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
     <hyperlink ref="D9" location="'资源-位图-图片'!A1" display="DT_RES_BITMAP_IMAGE"/>
     <hyperlink ref="D13" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
-    <hyperlink ref="D15" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D19" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D17" location="'资源3D-主题'!A1" display="DT_RS3_THEME"/>
+    <hyperlink ref="D24" location="'资源3D-模板-材质'!A1" display="DT_RS3_TEMPLATE_MATERIAL"/>
+    <hyperlink ref="D26" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D23" location="'资源3D-模板-主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9476,35 +10867,35 @@
       <c r="A1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -9962,35 +11353,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -10389,35 +11780,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -10766,35 +12157,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
@@ -11242,35 +12633,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="787" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="787" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="391">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1585,6 +1585,14 @@
   </si>
   <si>
     <t>引用：DT_RS3_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4725,14 +4733,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4836,7 +4844,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A18" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A19" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4916,21 +4924,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="30">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>94</v>
@@ -4942,15 +4950,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
       <c r="F9" s="50"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
@@ -4966,13 +4976,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
@@ -4990,19 +5000,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="50"/>
-      <c r="G11" s="30" t="s">
-        <v>254</v>
-      </c>
+      <c r="G11" s="30"/>
       <c r="H11" s="22">
         <v>42031</v>
       </c>
@@ -5016,17 +5024,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="50"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>254</v>
+      </c>
       <c r="H12" s="22">
         <v>42031</v>
       </c>
@@ -5040,19 +5050,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="50"/>
-      <c r="G13" s="30" t="s">
-        <v>256</v>
-      </c>
+      <c r="G13" s="30"/>
       <c r="H13" s="22">
         <v>42031</v>
       </c>
@@ -5061,28 +5069,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="13">
+      <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
+      <c r="B14" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="22">
         <v>42031</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5092,15 +5100,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2000</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
@@ -5116,13 +5126,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="49"/>
@@ -5140,13 +5150,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="49"/>
@@ -5158,27 +5168,51 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A18" s="15">
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A19" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17">
+      <c r="E19" s="16"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17">
         <v>42031</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I19" s="56" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6781,14 +6815,14 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6883,7 +6917,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I4" s="57" t="s">
         <v>8</v>
@@ -6891,7 +6925,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A13" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -6907,7 +6941,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>94</v>
@@ -6933,7 +6967,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I6" s="57" t="s">
         <v>94</v>
@@ -6945,21 +6979,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="30">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="30"/>
       <c r="H7" s="22">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I7" s="54" t="s">
         <v>94</v>
@@ -6971,49 +7005,49 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="30">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F8" s="50"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13">
+      <c r="A9" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="55" t="s">
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42039</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7023,19 +7057,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
       <c r="F10" s="49"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>94</v>
@@ -7047,19 +7083,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="49"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>94</v>
@@ -7071,45 +7107,69 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="49"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A13" s="15">
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="56" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42039</v>
+      </c>
+      <c r="I14" s="56" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7490,12 +7550,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12432,7 +12492,7 @@
     <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="787" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="787" firstSheet="17" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -29,20 +29,21 @@
     <sheet name="资源3D-模型" sheetId="77" r:id="rId20"/>
     <sheet name="资源3D-模型网格" sheetId="19" r:id="rId21"/>
     <sheet name="资源3D-主题" sheetId="82" r:id="rId22"/>
-    <sheet name="资源3D-材质" sheetId="75" r:id="rId23"/>
-    <sheet name="资源3D-材质位图" sheetId="76" r:id="rId24"/>
-    <sheet name="资源3D-模板" sheetId="78" r:id="rId25"/>
-    <sheet name="资源3D-模板主题" sheetId="84" r:id="rId26"/>
-    <sheet name="资源3D-模板材质" sheetId="85" r:id="rId27"/>
-    <sheet name="资源3D-场景" sheetId="81" r:id="rId28"/>
-    <sheet name="系统-会话" sheetId="20" r:id="rId29"/>
+    <sheet name="资源3D-材质组" sheetId="93" r:id="rId23"/>
+    <sheet name="资源3D-材质" sheetId="75" r:id="rId24"/>
+    <sheet name="资源3D-材质位图" sheetId="76" r:id="rId25"/>
+    <sheet name="资源3D-模板" sheetId="78" r:id="rId26"/>
+    <sheet name="资源3D-模板主题" sheetId="84" r:id="rId27"/>
+    <sheet name="资源3D-模板材质组" sheetId="85" r:id="rId28"/>
+    <sheet name="资源3D-场景" sheetId="81" r:id="rId29"/>
+    <sheet name="系统-会话" sheetId="20" r:id="rId30"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="401">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1368,30 +1369,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT_RS3_TEMPLATE_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源3D模板材质表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MATERIAL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激活标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT_RS3_TEMPLATE_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DT_RS3_ANIMATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1593,6 +1578,62 @@
   </si>
   <si>
     <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL_GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质分组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer:DT_RS3_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer:DT_RS3_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板材质组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质组编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4542,10 +4583,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
@@ -4555,7 +4596,7 @@
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H11" s="22">
         <v>42039</v>
@@ -4570,10 +4611,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>16</v>
@@ -4583,7 +4624,7 @@
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="30" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H12" s="22">
         <v>42039</v>
@@ -4735,12 +4776,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4760,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -4777,7 +4818,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -4924,10 +4965,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
@@ -5261,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -5278,7 +5319,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -5612,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -5629,7 +5670,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -5750,7 +5791,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>59</v>
@@ -5776,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>56</v>
@@ -5963,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -5980,7 +6021,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -6101,10 +6142,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>17</v>
@@ -6127,10 +6168,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -6153,10 +6194,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
@@ -6392,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -6409,7 +6450,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -6530,13 +6571,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="50" t="s">
@@ -6608,13 +6649,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>353</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
@@ -6632,13 +6673,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="50"/>
@@ -6656,13 +6697,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="50"/>
@@ -6841,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -6858,7 +6899,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -6979,10 +7020,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
@@ -7219,7 +7260,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -7236,7 +7277,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -7385,10 +7426,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -7398,7 +7439,7 @@
         <v>157</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H8" s="22">
         <v>42031</v>
@@ -7575,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -7592,7 +7633,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -7741,10 +7782,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -7754,7 +7795,7 @@
         <v>157</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H8" s="22">
         <v>42039</v>
@@ -8812,7 +8853,7 @@
         <v>244</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -8835,10 +8876,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
@@ -8996,7 +9037,761 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="30">
+        <v>80</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>200</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42033</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="30">
+        <v>200</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42033</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -9022,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -9039,7 +9834,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -9098,7 +9893,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I4" s="57" t="s">
         <v>8</v>
@@ -9106,7 +9901,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -9122,7 +9917,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>94</v>
@@ -9148,7 +9943,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I6" s="57" t="s">
         <v>94</v>
@@ -9174,7 +9969,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I7" s="57" t="s">
         <v>94</v>
@@ -9182,25 +9977,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A18" si="1">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>396</v>
+      </c>
       <c r="H8" s="22">
-        <v>42033</v>
+        <v>42012</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>94</v>
@@ -9208,25 +10003,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>56</v>
+        <v>394</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>397</v>
+      </c>
       <c r="H9" s="22">
-        <v>42033</v>
+        <v>42012</v>
       </c>
       <c r="I9" s="54" t="s">
         <v>94</v>
@@ -9234,149 +10029,227 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>114</v>
+        <v>390</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="30">
+        <v>80</v>
+      </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="30">
+        <v>80</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="30">
+        <v>200</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="H10" s="22">
-        <v>42033</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I13" s="55" t="s">
+      <c r="H13" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2000</v>
+      </c>
       <c r="F14" s="49"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A18" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42033</v>
-      </c>
-      <c r="I15" s="56" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9397,410 +10270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G34" sqref="G34"/>
-      <selection pane="topRight" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="84"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="87"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" ref="A8:A15" si="1">ROW()-3</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -10206,7 +10676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -10563,403 +11033,6 @@
         <v>42031</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="84"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="87"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42033</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42033</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22">
-        <v>42033</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42033</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42033</v>
-      </c>
-      <c r="I15" s="56" t="s">
         <v>94</v>
       </c>
     </row>
@@ -10989,7 +11062,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11008,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -11025,7 +11098,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -11220,13 +11293,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="50"/>
@@ -11378,6 +11451,379 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42039</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42039</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42039</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -11742,305 +12188,6 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G35" sqref="G35"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="84"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="87"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="37">
-        <f t="shared" ref="A7:A11" si="1">ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="33">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A11" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12485,14 +12632,313 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A11" si="1">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="33">
+        <v>42012</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A11" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12575,7 +13021,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="44">
-        <f t="shared" ref="A5:A50" si="1">ROW()-3</f>
+        <f t="shared" ref="A5:A51" si="1">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="36" t="str">
@@ -12779,7 +13225,7 @@
         <v>217</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F12" s="66">
         <v>42030</v>
@@ -12836,10 +13282,10 @@
         <v>资源3D</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F14" s="66">
         <v>42039</v>
@@ -12862,10 +13308,10 @@
         <v>资源3D</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F15" s="66">
         <v>42039</v>
@@ -12888,10 +13334,10 @@
         <v>资源3D</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F16" s="66">
         <v>42039</v>
@@ -12914,10 +13360,10 @@
         <v>资源3D</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F17" s="66">
         <v>42039</v>
@@ -12940,10 +13386,10 @@
         <v>资源3D</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F18" s="66">
         <v>42039</v>
@@ -12966,10 +13412,10 @@
         <v>资源3D</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F19" s="66">
         <v>42039</v>
@@ -12992,10 +13438,10 @@
         <v>资源3D</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F20" s="66">
         <v>42030</v>
@@ -13018,10 +13464,10 @@
         <v>资源3D</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F21" s="66">
         <v>42030</v>
@@ -13096,10 +13542,10 @@
         <v>资源3D</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F24" s="66">
         <v>42030</v>
@@ -13155,10 +13601,10 @@
         <v>资源3D</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="F26" s="34">
         <v>42030</v>
@@ -13166,42 +13612,36 @@
       <c r="G26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J26" t="s">
-        <v>272</v>
-      </c>
-      <c r="L26" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="70">
+      <c r="A27" s="43">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="73" t="str">
+      <c r="C27" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D27,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D27" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="F27" s="74">
-        <v>42030</v>
-      </c>
-      <c r="G27" s="75" t="s">
+      <c r="D27" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="34">
+        <v>42039</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -13217,10 +13657,10 @@
         <v>资源3D</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F28" s="74">
         <v>42030</v>
@@ -13229,7 +13669,10 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -13237,19 +13680,18 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="71" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D29,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C29" s="71" t="str">
+      <c r="B29" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="73" t="str">
         <f>IFERROR(VLOOKUP(MID(D29,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="E29" s="73" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="F29" s="74">
         <v>42030</v>
@@ -13258,58 +13700,61 @@
         <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="64">
+      <c r="A30" s="70">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B30" s="65" t="str">
+      <c r="B30" s="71" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D30,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C30" s="65" t="str">
+      <c r="C30" s="71" t="str">
         <f>IFERROR(VLOOKUP(MID(D30,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="66">
+      <c r="D30" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="74">
         <v>42030</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="75" t="s">
         <v>8</v>
       </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="44">
+      <c r="A31" s="64">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B31" s="36" t="str">
+      <c r="B31" s="65" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D31,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C31" s="36" t="str">
+      <c r="C31" s="65" t="str">
         <f>IFERROR(VLOOKUP(MID(D31,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" s="34">
+      <c r="D31" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="66">
         <v>42030</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="67" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13327,10 +13772,10 @@
         <v>资源3D</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F32" s="34">
         <v>42030</v>
@@ -13353,25 +13798,16 @@
         <v>资源3D</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F33" s="34">
         <v>42030</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>277</v>
-      </c>
-      <c r="J33" t="s">
-        <v>281</v>
-      </c>
-      <c r="L33" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -13388,16 +13824,25 @@
         <v>资源3D</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F34" s="34">
         <v>42030</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -13405,29 +13850,25 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>314</v>
+      <c r="B35" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D35,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D35,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源3D</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>326</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
       <c r="F35" s="34">
         <v>42030</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>8</v>
-      </c>
-      <c r="J35" t="s">
-        <v>282</v>
-      </c>
-      <c r="L35" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -13442,10 +13883,10 @@
         <v>209</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="34">
         <v>42030</v>
@@ -13454,10 +13895,10 @@
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -13472,10 +13913,10 @@
         <v>209</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F37" s="34">
         <v>42030</v>
@@ -13484,10 +13925,10 @@
         <v>8</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -13495,19 +13936,17 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D38,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>缓冲</v>
-      </c>
-      <c r="C38" s="36" t="str">
-        <f>IFERROR(VLOOKUP(MID(D38,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>系统</v>
+      <c r="B38" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="F38" s="34">
         <v>42030</v>
@@ -13515,26 +13954,37 @@
       <c r="G38" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="23">
+      <c r="A39" s="44">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="str">
+      <c r="B39" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D39,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C39" s="1" t="str">
+        <v>缓冲</v>
+      </c>
+      <c r="C39" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D39,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="24"/>
-      <c r="I39" t="s">
-        <v>291</v>
+        <v>系统</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -13554,6 +14004,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="6"/>
       <c r="G40" s="24"/>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="23">
@@ -13590,12 +14043,6 @@
       <c r="E42" s="1"/>
       <c r="F42" s="6"/>
       <c r="G42" s="24"/>
-      <c r="I42" t="s">
-        <v>279</v>
-      </c>
-      <c r="J42" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="23">
@@ -13614,6 +14061,12 @@
       <c r="E43" s="1"/>
       <c r="F43" s="6"/>
       <c r="G43" s="24"/>
+      <c r="I43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="23">
@@ -13650,9 +14103,6 @@
       <c r="E45" s="1"/>
       <c r="F45" s="6"/>
       <c r="G45" s="24"/>
-      <c r="I45" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="23">
@@ -13671,11 +14121,8 @@
       <c r="E46" s="1"/>
       <c r="F46" s="6"/>
       <c r="G46" s="24"/>
-      <c r="J46" t="s">
-        <v>229</v>
-      </c>
-      <c r="K46" t="s">
-        <v>233</v>
+      <c r="I46" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -13696,10 +14143,10 @@
       <c r="F47" s="6"/>
       <c r="G47" s="24"/>
       <c r="J47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -13744,41 +14191,65 @@
       <c r="F49" s="6"/>
       <c r="G49" s="24"/>
       <c r="J49" t="s">
-        <v>231</v>
-      </c>
-      <c r="K49" s="62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A50" s="25">
+        <v>230</v>
+      </c>
+      <c r="K49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="23">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B50" s="26" t="str">
+      <c r="B50" s="1" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D50,2),分库!$B:$D,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C50" s="26" t="str">
+      <c r="C50" s="1" t="str">
         <f>IFERROR(VLOOKUP(MID(D50,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="24"/>
       <c r="J50" t="s">
+        <v>231</v>
+      </c>
+      <c r="K50" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A51" s="25">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="26" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D51,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C51" s="26" t="str">
+        <f>IFERROR(VLOOKUP(MID(D51,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="J51" t="s">
         <v>237</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K51" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="J51" t="s">
+    <row r="52" spans="1:11">
+      <c r="J52" t="s">
         <v>232</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K52" t="s">
         <v>236</v>
       </c>
     </row>
@@ -13789,21 +14260,21 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D31" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
     <hyperlink ref="D23" location="'资源3D-模型网格'!A1" display="DT_RS3_MODEL_MESH"/>
-    <hyperlink ref="D28" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
-    <hyperlink ref="D26" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
+    <hyperlink ref="D29" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D27" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
     <hyperlink ref="D12" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
     <hyperlink ref="D22" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
-    <hyperlink ref="D33" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
+    <hyperlink ref="D34" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
     <hyperlink ref="D20" location="'资源3D-网格数据流'!A1" display="DT_RS3_MESH_STREAM"/>
     <hyperlink ref="D5" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
     <hyperlink ref="D4" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D38" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
-    <hyperlink ref="D35" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D39" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
     <hyperlink ref="D36" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D37" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D29" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
+    <hyperlink ref="D38" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D30" location="'资源3D-网格'!A1" display="DT_RS3_GEOMETRY"/>
     <hyperlink ref="D10" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
     <hyperlink ref="D11" location="'资源3D-纹理-位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
     <hyperlink ref="D8" location="'资源-位图'!A1" display="DT_RES_BITMAP"/>
@@ -13811,11 +14282,11 @@
     <hyperlink ref="D6" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
     <hyperlink ref="D9" location="'资源-位图图片'!A1" display="DT_RES_BITMAP_IMAGE"/>
     <hyperlink ref="D13" location="'资源3D-纹理位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
-    <hyperlink ref="D27" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D28" location="'资源3D-材质-纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
     <hyperlink ref="D25" location="'资源3D-主题'!A1" display="DT_RS3_THEME"/>
-    <hyperlink ref="D32" location="'资源3D-模板-材质'!A1" display="DT_RS3_TEMPLATE_MATERIAL"/>
-    <hyperlink ref="D34" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
-    <hyperlink ref="D31" location="'资源3D-模板-主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
+    <hyperlink ref="D33" location="'资源3D-模板材质组'!A1" display="DT_RS3_TEMPLATE_MATERIAL_GROUP"/>
+    <hyperlink ref="D35" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D32" location="'资源3D-模板主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
     <hyperlink ref="D17" location="'资源3D-动画跟踪'!A1" display="DT_RS3_ANIMATION_TRACK"/>
     <hyperlink ref="D16" location="'资源3D-动画'!A1" display="DT_RS3_ANIMATION"/>
     <hyperlink ref="D18" location="'资源3D-动画动作'!A1" display="DT_RS3_ANIMATION_ACTION"/>
@@ -13824,6 +14295,7 @@
     <hyperlink ref="D15" location="'资源3D-跟踪'!A1" display="DT_RS3_TRACK"/>
     <hyperlink ref="D14" location="'资源3D-数据流'!A1" display="DT_RS3_STREAM"/>
     <hyperlink ref="D19" location="'资源3D-网格'!A1" display="DT_RS3_MESH"/>
+    <hyperlink ref="D26" location="'资源3D-材质组'!A1" display="DT_RS3_MATERIAL_GROUP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -23,31 +23,32 @@
     <sheet name="资源3D-动画动作" sheetId="86" r:id="rId14"/>
     <sheet name="资源3D-骨骼" sheetId="97" r:id="rId15"/>
     <sheet name="资源3D-骨骼蒙皮" sheetId="94" r:id="rId16"/>
-    <sheet name="资源3D-骨骼动画" sheetId="100" r:id="rId17"/>
-    <sheet name="资源3D-网格" sheetId="91" r:id="rId18"/>
-    <sheet name="资源3D-网格数据流" sheetId="9" r:id="rId19"/>
-    <sheet name="资源3D-网格蒙皮数据流" sheetId="96" r:id="rId20"/>
-    <sheet name="资源3D-网格跟踪" sheetId="92" r:id="rId21"/>
-    <sheet name="资源3D-模型" sheetId="77" r:id="rId22"/>
-    <sheet name="资源3D-模型网格" sheetId="19" r:id="rId23"/>
-    <sheet name="资源3D-模型骨骼" sheetId="98" r:id="rId24"/>
-    <sheet name="资源3D-模型动画" sheetId="99" r:id="rId25"/>
-    <sheet name="资源3D-主题" sheetId="82" r:id="rId26"/>
-    <sheet name="资源3D-材质组" sheetId="93" r:id="rId27"/>
-    <sheet name="资源3D-材质" sheetId="75" r:id="rId28"/>
-    <sheet name="资源3D-材质纹理" sheetId="76" r:id="rId29"/>
-    <sheet name="资源3D-模板" sheetId="78" r:id="rId30"/>
-    <sheet name="资源3D-模板主题" sheetId="84" r:id="rId31"/>
-    <sheet name="资源3D-模板材质组" sheetId="85" r:id="rId32"/>
-    <sheet name="资源3D-场景" sheetId="81" r:id="rId33"/>
-    <sheet name="系统-会话" sheetId="20" r:id="rId34"/>
+    <sheet name="资源3D-骨骼蒙皮数据流" sheetId="101" r:id="rId17"/>
+    <sheet name="资源3D-骨骼动画" sheetId="100" r:id="rId18"/>
+    <sheet name="资源3D-网格" sheetId="91" r:id="rId19"/>
+    <sheet name="资源3D-网格数据流" sheetId="9" r:id="rId20"/>
+    <sheet name="资源3D-网格蒙皮" sheetId="96" r:id="rId21"/>
+    <sheet name="资源3D-网格跟踪" sheetId="92" r:id="rId22"/>
+    <sheet name="资源3D-模型" sheetId="77" r:id="rId23"/>
+    <sheet name="资源3D-模型网格" sheetId="19" r:id="rId24"/>
+    <sheet name="资源3D-模型骨骼" sheetId="98" r:id="rId25"/>
+    <sheet name="资源3D-模型动画" sheetId="99" r:id="rId26"/>
+    <sheet name="资源3D-主题" sheetId="82" r:id="rId27"/>
+    <sheet name="资源3D-材质组" sheetId="93" r:id="rId28"/>
+    <sheet name="资源3D-材质" sheetId="75" r:id="rId29"/>
+    <sheet name="资源3D-材质纹理" sheetId="76" r:id="rId30"/>
+    <sheet name="资源3D-模板" sheetId="78" r:id="rId31"/>
+    <sheet name="资源3D-模板主题" sheetId="84" r:id="rId32"/>
+    <sheet name="资源3D-模板材质组" sheetId="85" r:id="rId33"/>
+    <sheet name="资源3D-场景" sheetId="81" r:id="rId34"/>
+    <sheet name="系统-会话" sheetId="20" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="417">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1221,10 +1222,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ANIMATION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨头编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STREAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESH_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL_GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质分组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer:DT_RS3_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer:DT_RS3_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板材质组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_PSN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧间隔</t>
+  </si>
+  <si>
     <t>LABEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蒙皮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF: DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_PSN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF:DT_RS3_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型骨骼表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF: DT_RS3_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_SKIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ANIMATION_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,426 +1597,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REF: DT_RS3_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RecordId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME_BEGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束帧</t>
+    <t>DT_RS3_SKELETON_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON_SKIN_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼蒙皮数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_SKIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STREAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼蒙皮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_SKELETON_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_SPAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D跟踪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRACK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨头编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_SOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL_TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STREAM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESH_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网格编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格跟踪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质组表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THEME_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATERIAL_GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质分组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refer:DT_RS3_THEME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refer:DT_RS3_MATERIAL_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE_MATERIAL_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板材质组表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_PSN_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧总长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧间隔</t>
-  </si>
-  <si>
-    <t>LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙皮编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨骼编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF: DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_PSN_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF:DT_RS3_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型骨骼表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF: DT_RS3_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼蒙皮表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_SKIN_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格蒙皮数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STREAM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_SKELETON_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_SKIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANIMATION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF: DT_RS3_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质纹理表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3576,7 +3625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3618,7 +3667,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3653,7 +3702,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3988,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -4005,7 +4054,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -4152,10 +4201,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>337</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
@@ -4489,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -4506,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -4679,13 +4728,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49"/>
@@ -4703,13 +4752,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
@@ -4727,13 +4776,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>358</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>359</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
@@ -4886,14 +4935,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4996,7 +5045,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A13" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -5076,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>55</v>
@@ -5097,76 +5146,74 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13">
+      <c r="A9" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
+      <c r="B9" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
         <v>42039</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13">
+      <c r="A10" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
+      <c r="B10" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
         <v>42039</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13">
+      <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
+      <c r="B11" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
         <v>42039</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5176,15 +5223,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2000</v>
+      </c>
       <c r="F12" s="48"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
@@ -5194,27 +5243,99 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A13" s="15">
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17">
+      <c r="E16" s="16"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
         <v>42039</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I16" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5401,10 +5522,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>297</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>298</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>17</v>
@@ -5414,7 +5535,7 @@
         <v>140</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H7" s="22">
         <v>42031</v>
@@ -5429,10 +5550,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -5455,10 +5576,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
@@ -5832,20 +5953,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>298</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="49" t="s">
         <v>140</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H7" s="22">
         <v>42031</v>
@@ -5912,13 +6033,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>301</v>
-      </c>
       <c r="D10" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
@@ -5936,13 +6057,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>304</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
@@ -5960,13 +6081,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="30" t="s">
         <v>306</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>307</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -6146,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -6163,7 +6284,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -6284,10 +6405,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>337</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
@@ -6336,10 +6457,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>16</v>
@@ -6362,13 +6483,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>376</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>377</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
@@ -6548,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -6565,7 +6686,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -6686,18 +6807,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>369</v>
-      </c>
       <c r="D7" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="49"/>
       <c r="G7" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H7" s="22">
         <v>42040</v>
@@ -6712,10 +6833,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>337</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
@@ -6767,7 +6888,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>16</v>
@@ -6790,13 +6911,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>376</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>377</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
@@ -6948,6 +7069,390 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" s="22">
+        <v>42040</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="22">
+        <v>42040</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="22">
+        <v>42040</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -6976,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -6993,7 +7498,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -7114,10 +7619,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>368</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>369</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>17</v>
@@ -7127,7 +7632,7 @@
         <v>140</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H7" s="22">
         <v>42040</v>
@@ -7142,10 +7647,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -7155,7 +7660,7 @@
         <v>140</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H8" s="22">
         <v>42039</v>
@@ -7303,7 +7808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -7331,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -7348,7 +7853,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -7469,10 +7974,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>337</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
@@ -7668,362 +8173,6 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="51" customWidth="1"/>
-    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="77"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A6" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="29">
-        <f t="shared" ref="A7:A13" si="1">ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="H8" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A13" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8376,14 +8525,370 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A6" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" ref="A7:A13" si="1">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="H7" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A13" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8403,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -8420,7 +8925,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -8487,7 +8992,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -8554,7 +9059,7 @@
         <v>140</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H7" s="22">
         <v>42031</v>
@@ -8569,10 +9074,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -8582,7 +9087,7 @@
         <v>140</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="H8" s="22">
         <v>42031</v>
@@ -8597,10 +9102,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
@@ -8610,7 +9115,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -8620,30 +9125,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="29">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="H10" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="53" t="s">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8653,17 +9156,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="48"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
@@ -8679,13 +9180,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="48"/>
@@ -8703,13 +9204,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="48"/>
@@ -8721,51 +9222,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I15" s="55" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8786,7 +9263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -8815,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -8832,7 +9309,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -8981,10 +9458,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>312</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -8994,7 +9471,7 @@
         <v>140</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H8" s="22">
         <v>42039</v>
@@ -9122,383 +9599,6 @@
         <v>42031</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="77"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
-        <v>42031</v>
-      </c>
-      <c r="I14" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9528,7 +9628,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9544,10 +9644,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -9564,7 +9664,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -9631,7 +9731,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -9707,22 +9807,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" ref="A8:A14" si="1">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>325</v>
+        <v>58</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="49" t="s">
-        <v>140</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="49"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42031</v>
@@ -9733,20 +9833,20 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>331</v>
+        <v>39</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="30">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="30"/>
@@ -9759,17 +9859,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8">
         <v>2000</v>
@@ -9785,7 +9885,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -9809,7 +9909,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -9833,7 +9933,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -9857,7 +9957,7 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1">
       <c r="A14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -9921,10 +10021,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -9941,7 +10041,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>374</v>
+        <v>203</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -10008,7 +10108,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -10084,14 +10184,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A14" si="1">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>207</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -10100,9 +10200,7 @@
       <c r="F8" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>375</v>
-      </c>
+      <c r="G8" s="30"/>
       <c r="H8" s="22">
         <v>42031</v>
       </c>
@@ -10112,25 +10210,23 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>370</v>
-      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42031</v>
       </c>
@@ -10140,17 +10236,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E10" s="8">
         <v>2000</v>
@@ -10166,7 +10262,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -10190,7 +10286,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -10214,7 +10310,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -10238,7 +10334,7 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1">
       <c r="A14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -10286,7 +10382,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10305,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -10322,7 +10418,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -10472,7 +10568,7 @@
         <v>207</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>17</v>
@@ -10482,7 +10578,7 @@
         <v>140</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" s="22">
         <v>42031</v>
@@ -10497,20 +10593,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
         <v>140</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -10664,10 +10760,10 @@
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G34" sqref="G34"/>
-      <selection pane="topRight" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10686,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>271</v>
+        <v>385</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -10703,7 +10799,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -10762,7 +10858,7 @@
       <c r="F4" s="48"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I4" s="56" t="s">
         <v>8</v>
@@ -10786,7 +10882,7 @@
       <c r="F5" s="48"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>87</v>
@@ -10812,35 +10908,35 @@
       <c r="F6" s="48"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I6" s="56" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="29">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30">
-        <v>80</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="22">
-        <v>42033</v>
-      </c>
-      <c r="I7" s="53" t="s">
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="56" t="s">
         <v>87</v>
       </c>
     </row>
@@ -10850,21 +10946,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>200</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>374</v>
+      </c>
       <c r="H8" s="22">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>87</v>
@@ -10876,21 +10974,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>103</v>
+        <v>389</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>93</v>
+        <v>391</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="49" t="s">
+        <v>140</v>
+      </c>
       <c r="G9" s="30" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
       <c r="H9" s="22">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>87</v>
@@ -10916,7 +11016,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>87</v>
@@ -10940,7 +11040,7 @@
       <c r="F11" s="48"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>87</v>
@@ -10964,7 +11064,7 @@
       <c r="F12" s="48"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I12" s="54" t="s">
         <v>87</v>
@@ -10988,7 +11088,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I13" s="54" t="s">
         <v>87</v>
@@ -11012,7 +11112,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17">
-        <v>42033</v>
+        <v>42031</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>87</v>
@@ -11044,7 +11144,7 @@
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13:G14"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11063,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -11080,7 +11180,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -11201,16 +11301,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>340</v>
+        <v>54</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="30">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="30"/>
@@ -11227,16 +11327,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="30">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="30"/>
@@ -11253,19 +11353,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="49"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>262</v>
+      </c>
       <c r="H9" s="22">
         <v>42033</v>
       </c>
@@ -11413,6 +11513,383 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="30">
+        <v>200</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42033</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42033</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42033</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -11604,18 +12081,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="49"/>
       <c r="G8" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H8" s="22">
         <v>42012</v>
@@ -11630,18 +12107,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>345</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>346</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49"/>
       <c r="G9" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H9" s="22">
         <v>42012</v>
@@ -11656,10 +12133,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>341</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>16</v>
@@ -11873,412 +12350,6 @@
         <v>42012</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G34" sqref="G34"/>
-      <selection pane="topRight" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="51" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>403</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="77"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22">
-        <v>42012</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -12733,6 +12804,412 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
@@ -13108,7 +13585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -13485,379 +13962,6 @@
         <v>42033</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
-    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="77"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="80"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>40</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
-        <v>40</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="22">
-        <v>42039</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="22">
-        <v>42039</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42039</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
-        <v>42039</v>
-      </c>
-      <c r="I14" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13906,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -13923,7 +14027,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -13982,7 +14086,7 @@
       <c r="F4" s="48"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I4" s="56" t="s">
         <v>8</v>
@@ -14006,7 +14110,7 @@
       <c r="F5" s="48"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>87</v>
@@ -14032,7 +14136,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I6" s="56" t="s">
         <v>87</v>
@@ -14058,7 +14162,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I7" s="56" t="s">
         <v>87</v>
@@ -14070,21 +14174,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>54</v>
+        <v>283</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30">
-        <v>80</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="49"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>87</v>
@@ -14096,21 +14198,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="30">
-        <v>200</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="49"/>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>87</v>
@@ -14136,7 +14236,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>87</v>
@@ -14160,7 +14260,7 @@
       <c r="F11" s="48"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>87</v>
@@ -14184,7 +14284,7 @@
       <c r="F12" s="48"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I12" s="54" t="s">
         <v>87</v>
@@ -14208,7 +14308,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I13" s="54" t="s">
         <v>87</v>
@@ -14232,7 +14332,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17">
-        <v>42031</v>
+        <v>42039</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>87</v>
@@ -14256,6 +14356,383 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
+        <v>42031</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H1:I1" location="结构!A1" display="返回 - 结构"/>
+    <hyperlink ref="H2:I2" location="列表!A1" display="返回 - 列表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -14556,12 +15033,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14630,7 +15107,7 @@
         <v>180</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>143</v>
@@ -14697,7 +15174,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="67">
-        <f t="shared" ref="A7:A49" si="1">ROW()-3</f>
+        <f t="shared" ref="A7:A50" si="1">ROW()-3</f>
         <v>4</v>
       </c>
       <c r="B7" s="64" t="s">
@@ -14711,7 +15188,7 @@
         <v>188</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F7" s="65">
         <v>42030</v>
@@ -14768,10 +15245,10 @@
         <v>资源3D</v>
       </c>
       <c r="D9" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>321</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>322</v>
       </c>
       <c r="F9" s="65">
         <v>42039</v>
@@ -14794,10 +15271,10 @@
         <v>资源3D</v>
       </c>
       <c r="D10" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="64" t="s">
         <v>308</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>309</v>
       </c>
       <c r="F10" s="65">
         <v>42039</v>
@@ -14823,7 +15300,7 @@
         <v>289</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F11" s="65">
         <v>42039</v>
@@ -14910,10 +15387,10 @@
         <v>资源3D</v>
       </c>
       <c r="D14" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>380</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>382</v>
       </c>
       <c r="F14" s="65">
         <v>42040</v>
@@ -14936,10 +15413,10 @@
         <v>资源3D</v>
       </c>
       <c r="D15" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>381</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>383</v>
       </c>
       <c r="F15" s="65">
         <v>42040</v>
@@ -14962,10 +15439,10 @@
         <v>资源3D</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F16" s="65">
         <v>42040</v>
@@ -14979,22 +15456,22 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="64" t="str">
+      <c r="B17" s="68" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D17,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C17" s="64" t="str">
+      <c r="C17" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D17,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="F17" s="65">
-        <v>42039</v>
+        <v>42040</v>
       </c>
       <c r="G17" s="66" t="s">
         <v>8</v>
@@ -15005,22 +15482,22 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="68" t="str">
+      <c r="B18" s="64" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D18,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C18" s="68" t="str">
+      <c r="C18" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D18,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F18" s="65">
-        <v>42030</v>
+        <v>42039</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>8</v>
@@ -15040,13 +15517,13 @@
         <v>资源3D</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="F19" s="65">
-        <v>42040</v>
+        <v>42030</v>
       </c>
       <c r="G19" s="66" t="s">
         <v>8</v>
@@ -15066,13 +15543,13 @@
         <v>资源3D</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="F20" s="65">
-        <v>42030</v>
+        <v>42040</v>
       </c>
       <c r="G20" s="66" t="s">
         <v>8</v>
@@ -15083,19 +15560,19 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="64" t="str">
+      <c r="B21" s="68" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D21,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C21" s="64" t="str">
+      <c r="C21" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D21,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>187</v>
+        <v>332</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="F21" s="65">
         <v>42030</v>
@@ -15109,19 +15586,19 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="68" t="str">
+      <c r="B22" s="64" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D22,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C22" s="68" t="str">
+      <c r="C22" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D22,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F22" s="65">
         <v>42030</v>
@@ -15144,10 +15621,10 @@
         <v>资源3D</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>374</v>
+        <v>203</v>
       </c>
       <c r="F23" s="65">
         <v>42030</v>
@@ -15170,10 +15647,10 @@
         <v>资源3D</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F24" s="65">
         <v>42030</v>
@@ -15187,33 +15664,25 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="64" t="str">
+      <c r="B25" s="68" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D25,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C25" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D25,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>271</v>
+        <v>385</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="F25" s="65">
         <v>42030</v>
       </c>
       <c r="G25" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>229</v>
-      </c>
-      <c r="J25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -15229,16 +15698,25 @@
         <v>资源3D</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="F26" s="65">
         <v>42030</v>
       </c>
       <c r="G26" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -15254,22 +15732,16 @@
         <v>资源3D</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="F27" s="65">
-        <v>42039</v>
+        <v>42030</v>
       </c>
       <c r="G27" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="J27" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -15285,48 +15757,53 @@
         <v>资源3D</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>403</v>
+        <v>189</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F28" s="65">
-        <v>42030</v>
+        <v>42039</v>
       </c>
       <c r="G28" s="66" t="s">
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="63">
+      <c r="A29" s="67">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="64" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D29,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
+      <c r="B29" s="64" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D29,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="F29" s="65">
         <v>42030</v>
       </c>
       <c r="G29" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -15343,10 +15820,10 @@
         <v>资源3D</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="F30" s="65">
         <v>42030</v>
@@ -15369,10 +15846,10 @@
         <v>资源3D</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F31" s="65">
         <v>42030</v>
@@ -15382,38 +15859,29 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="43">
+      <c r="A32" s="63">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B32" s="36" t="str">
+      <c r="B32" s="64" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D32,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C32" s="36" t="str">
+      <c r="C32" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D32,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源3D</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="D32" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="65">
         <v>42030</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>235</v>
-      </c>
-      <c r="J32" t="s">
-        <v>239</v>
-      </c>
-      <c r="L32" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -15430,16 +15898,25 @@
         <v>资源3D</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F33" s="34">
         <v>42030</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -15447,29 +15924,25 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>267</v>
+      <c r="B34" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D34,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C34" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D34,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源3D</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="F34" s="34">
         <v>42030</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>240</v>
-      </c>
-      <c r="L34" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -15484,10 +15957,10 @@
         <v>180</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" s="34">
         <v>42030</v>
@@ -15496,10 +15969,10 @@
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -15514,10 +15987,10 @@
         <v>180</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F36" s="34">
         <v>42030</v>
@@ -15526,10 +15999,10 @@
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -15537,19 +16010,17 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D37,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>缓冲</v>
-      </c>
-      <c r="C37" s="36" t="str">
-        <f>IFERROR(VLOOKUP(MID(D37,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>系统</v>
+      <c r="B37" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F37" s="34">
         <v>42030</v>
@@ -15557,26 +16028,37 @@
       <c r="G37" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="J37" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="23">
+      <c r="A38" s="43">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="str">
+      <c r="B38" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D38,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C38" s="1" t="str">
+        <v>缓冲</v>
+      </c>
+      <c r="C38" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D38,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="24"/>
-      <c r="I38" t="s">
-        <v>249</v>
+        <v>系统</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="34">
+        <v>42030</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -15596,6 +16078,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="6"/>
       <c r="G39" s="24"/>
+      <c r="I39" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="23">
@@ -15632,12 +16117,6 @@
       <c r="E41" s="1"/>
       <c r="F41" s="6"/>
       <c r="G41" s="24"/>
-      <c r="I41" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="23">
@@ -15656,6 +16135,12 @@
       <c r="E42" s="1"/>
       <c r="F42" s="6"/>
       <c r="G42" s="24"/>
+      <c r="I42" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="23">
@@ -15692,9 +16177,6 @@
       <c r="E44" s="1"/>
       <c r="F44" s="6"/>
       <c r="G44" s="24"/>
-      <c r="I44" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="23">
@@ -15713,11 +16195,8 @@
       <c r="E45" s="1"/>
       <c r="F45" s="6"/>
       <c r="G45" s="24"/>
-      <c r="J45" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" t="s">
-        <v>196</v>
+      <c r="I45" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -15738,10 +16217,10 @@
       <c r="F46" s="6"/>
       <c r="G46" s="24"/>
       <c r="J46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -15786,41 +16265,65 @@
       <c r="F48" s="6"/>
       <c r="G48" s="24"/>
       <c r="J48" t="s">
-        <v>194</v>
-      </c>
-      <c r="K48" s="61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A49" s="25">
+        <v>193</v>
+      </c>
+      <c r="K48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="23">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B49" s="26" t="str">
+      <c r="B49" s="1" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D49,2),分库!$B:$D,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C49" s="26" t="str">
+      <c r="C49" s="1" t="str">
         <f>IFERROR(VLOOKUP(MID(D49,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="24"/>
       <c r="J49" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A50" s="25">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="26" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D50,2),分库!$B:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="26" t="str">
+        <f>IFERROR(VLOOKUP(MID(D50,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="J50" t="s">
         <v>200</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="J50" t="s">
+    <row r="51" spans="1:11">
+      <c r="J51" t="s">
         <v>195</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K51" t="s">
         <v>199</v>
       </c>
     </row>
@@ -15831,39 +16334,40 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D29" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
-    <hyperlink ref="D22" location="'资源3D-模型网格'!A1" display="DT_RS3_MODEL_MESH"/>
-    <hyperlink ref="D27" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
+    <hyperlink ref="D30" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D23" location="'资源3D-模型网格'!A1" display="DT_RS3_MODEL_MESH"/>
+    <hyperlink ref="D28" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
     <hyperlink ref="D7" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
-    <hyperlink ref="D21" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
-    <hyperlink ref="D32" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
-    <hyperlink ref="D18" location="'资源3D-网格数据流'!A1" display="DT_RS3_MESH_STREAM"/>
+    <hyperlink ref="D22" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
+    <hyperlink ref="D33" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
+    <hyperlink ref="D19" location="'资源3D-网格数据流'!A1" display="DT_RS3_MESH_STREAM"/>
     <hyperlink ref="D4" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D37" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
-    <hyperlink ref="D34" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D38" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
     <hyperlink ref="D35" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D36" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D37" location="'用户-信息'!A1" display="DT_PSN_USER"/>
     <hyperlink ref="D6" location="'资源-位图图片'!A1" display="DT_RES_BITMAP_IMAGE"/>
     <hyperlink ref="D8" location="'资源3D-纹理位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
-    <hyperlink ref="D28" location="'资源3D-材质纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
-    <hyperlink ref="D25" location="'资源3D-主题'!A1" display="DT_RS3_THEME"/>
-    <hyperlink ref="D31" location="'资源3D-模板材质组'!A1" display="DT_RS3_TEMPLATE_MATERIAL_GROUP"/>
-    <hyperlink ref="D33" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
-    <hyperlink ref="D30" location="'资源3D-模板主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
+    <hyperlink ref="D29" location="'资源3D-材质纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D26" location="'资源3D-主题'!A1" display="DT_RS3_THEME"/>
+    <hyperlink ref="D32" location="'资源3D-模板材质组'!A1" display="DT_RS3_TEMPLATE_MATERIAL_GROUP"/>
+    <hyperlink ref="D34" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D31" location="'资源3D-模板主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
     <hyperlink ref="D12" location="'资源3D-动画跟踪'!A1" display="DT_RS3_ANIMATION_TRACK"/>
     <hyperlink ref="D11" location="'资源3D-动画'!A1" display="DT_RS3_ANIMATION"/>
     <hyperlink ref="D13" location="'资源3D-动画动作'!A1" display="DT_RS3_ANIMATION_ACTION"/>
-    <hyperlink ref="D16" location="'资源3D-骨骼动画'!A1" display="DT_RS3_SKELETON_ANIMATION"/>
-    <hyperlink ref="D20" location="'资源3D-网格跟踪'!A1" display="DT_RS3_MESH_TRACK"/>
+    <hyperlink ref="D17" location="'资源3D-骨骼动画'!A1" display="DT_RS3_SKELETON_ANIMATION"/>
+    <hyperlink ref="D21" location="'资源3D-网格跟踪'!A1" display="DT_RS3_MESH_TRACK"/>
     <hyperlink ref="D10" location="'资源3D-跟踪'!A1" display="DT_RS3_TRACK"/>
     <hyperlink ref="D9" location="'资源3D-数据流'!A1" display="DT_RS3_STREAM"/>
-    <hyperlink ref="D17" location="'资源3D-网格'!A1" display="DT_RS3_MESH"/>
-    <hyperlink ref="D26" location="'资源3D-材质组'!A1" display="DT_RS3_MATERIAL_GROUP"/>
-    <hyperlink ref="D19" location="'资源3D-网格蒙皮数据流'!A1" display="DT_RS3_MESH_SKIN_STREAM"/>
+    <hyperlink ref="D18" location="'资源3D-网格'!A1" display="DT_RS3_MESH"/>
+    <hyperlink ref="D27" location="'资源3D-材质组'!A1" display="DT_RS3_MATERIAL_GROUP"/>
+    <hyperlink ref="D20" location="'资源3D-网格蒙皮'!A1" display="DT_RS3_MESH_SKIN"/>
     <hyperlink ref="D14" location="'资源3D-骨骼'!A1" display="DT_RS3_SKELETON"/>
-    <hyperlink ref="D23" location="'资源3D-模型骨骼'!A1" display="DT_RS3_MODEL_SKELETON"/>
-    <hyperlink ref="D24" location="'资源3D-模型动画'!A1" display="DT_RS3_MODEL_ANIMATION"/>
+    <hyperlink ref="D24" location="'资源3D-模型骨骼'!A1" display="DT_RS3_MODEL_SKELETON"/>
+    <hyperlink ref="D25" location="'资源3D-模型动画'!A1" display="DT_RS3_MODEL_ANIMATION"/>
     <hyperlink ref="D15" location="'资源3D-骨骼蒙皮'!A1" display="DT_RS3_SKELETON_SKIN"/>
+    <hyperlink ref="D16" location="'资源3D-骨骼蒙皮数据流'!A1" display="DT_RS3_SKELETON_SKIN_STREAM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15898,7 +16402,7 @@
         <v>80</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -15915,7 +16419,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -17781,10 +18285,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
@@ -17794,7 +18298,7 @@
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="22">
         <v>42039</v>
@@ -17809,10 +18313,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>16</v>
@@ -17822,7 +18326,7 @@
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="22">
         <v>42039</v>

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="431">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,6 +1702,62 @@
   </si>
   <si>
     <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLINE_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLINE_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓最小点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓最大点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4937,12 +4993,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7810,14 +7866,14 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7920,7 +7976,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A14" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A17" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -8047,76 +8103,78 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13">
+      <c r="A10" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
+      <c r="B10" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="30">
+        <v>80</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22">
         <v>42039</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13">
+      <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
+      <c r="B11" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="30">
+        <v>80</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22">
         <v>42039</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13">
+      <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
+      <c r="B12" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
         <v>42039</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8126,15 +8184,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2000</v>
+      </c>
       <c r="F13" s="48"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
@@ -8144,27 +8204,99 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A14" s="15">
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9">
+        <v>42039</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A17" s="15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="B17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17">
+      <c r="E17" s="16"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17">
         <v>42039</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I17" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -12804,14 +12936,14 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12915,7 +13047,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8">
-        <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A16" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -12997,21 +13129,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="30">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="30"/>
       <c r="H8" s="22">
-        <v>42012</v>
+        <v>42041</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>87</v>
@@ -13023,19 +13155,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>80</v>
+      </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="30" t="s">
-        <v>166</v>
-      </c>
+      <c r="G9" s="30"/>
       <c r="H9" s="22">
         <v>42012</v>
       </c>
@@ -13049,10 +13181,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
@@ -13060,7 +13192,7 @@
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
       <c r="G10" s="30" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H10" s="22">
         <v>42012</v>
@@ -13075,19 +13207,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="30">
-        <v>2000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E11" s="30"/>
       <c r="F11" s="49"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>177</v>
+      </c>
       <c r="H11" s="22">
         <v>42012</v>
       </c>
@@ -13096,26 +13228,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13">
+      <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
+      <c r="B12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
         <v>42012</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13125,13 +13259,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="48"/>
@@ -13149,13 +13283,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="48"/>
@@ -13167,27 +13301,51 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="15">
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17">
+      <c r="E16" s="16"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
         <v>42012</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I16" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -15038,7 +15196,7 @@
     <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15132,7 +15290,7 @@
         <v>资源</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>252</v>
@@ -15274,7 +15432,7 @@
         <v>307</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="F10" s="65">
         <v>42039</v>
@@ -16861,14 +17019,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17021,25 +17179,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="29">
-        <f t="shared" ref="A7:A13" si="1">ROW()-3</f>
+        <f t="shared" ref="A7:A14" si="1">ROW()-3</f>
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>54</v>
+        <v>419</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="30">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="30"/>
       <c r="H7" s="22">
-        <v>42012</v>
+        <v>42041</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>87</v>
@@ -17051,16 +17209,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="30">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="30"/>
@@ -17072,28 +17230,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13">
+      <c r="A9" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I9" s="54" t="s">
+      <c r="E9" s="30">
+        <v>200</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -17103,19 +17261,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
       <c r="F10" s="48"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
-        <v>42012</v>
+        <v>42031</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>87</v>
@@ -17127,13 +17287,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="48"/>
@@ -17151,13 +17311,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="48"/>
@@ -17169,27 +17329,51 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A13" s="15">
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17">
+      <c r="E14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
         <v>42012</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I14" s="55" t="s">
         <v>87</v>
       </c>
     </row>

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="27" activeTab="34"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -10170,7 +10170,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD12"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16696,12 +16696,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17522,10 +17522,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18871,7 +18871,7 @@
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/document/2-数据/2.1.4 数据设计-表格.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="32" activeTab="39"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,12 @@
     <sheet name="资源3D-场景主题" sheetId="102" r:id="rId39"/>
     <sheet name="系统-会话" sheetId="20" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="481">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1953,6 +1953,14 @@
   </si>
   <si>
     <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_PREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有预览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3896,7 +3904,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3938,7 +3946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3973,7 +3981,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19256,9 +19264,9 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20686,12 +20694,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22851,14 +22859,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22961,7 +22969,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A19" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A20" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -23186,28 +23194,26 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="31">
+      <c r="A14" s="69">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="32">
-        <v>2000</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33">
-        <v>42090</v>
-      </c>
-      <c r="I14" s="60" t="s">
+      <c r="B14" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="72">
+        <v>42096</v>
+      </c>
+      <c r="I14" s="73" t="s">
         <v>86</v>
       </c>
     </row>
@@ -23217,10 +23223,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>16</v>
@@ -23238,26 +23244,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="13">
+      <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9">
+      <c r="B16" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="32">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33">
         <v>42090</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="60" t="s">
         <v>86</v>
       </c>
     </row>
@@ -23267,13 +23275,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="48"/>
@@ -23291,13 +23299,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="48"/>
@@ -23309,27 +23317,51 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A19" s="15">
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
+        <v>42090</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A20" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17">
+      <c r="E20" s="16"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
         <v>42090</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I20" s="55" t="s">
         <v>86</v>
       </c>
     </row>
